--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475C75F-7592-4A5A-B3C5-D00C3A31A410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D09F6-9AC1-4631-8DB2-761380A048E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
+    <workbookView xWindow="2292" yWindow="720" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Loss" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -161,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -512,10 +514,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Weight Loss'!$A$2:$A$122</c:f>
+              <c:f>'Weight Loss'!$A$2:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
                   <c:v>43635</c:v>
                 </c:pt>
@@ -790,104 +792,89 @@
                   <c:v>43773</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43774</c:v>
+                  <c:v>43779</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43775</c:v>
+                  <c:v>43780</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43776</c:v>
+                  <c:v>43782</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43777</c:v>
+                  <c:v>43783</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43778</c:v>
+                  <c:v>43784</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43779</c:v>
+                  <c:v>43785</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43780</c:v>
+                  <c:v>43786</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43781</c:v>
+                  <c:v>43787</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43782</c:v>
+                  <c:v>43788</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43783</c:v>
+                  <c:v>43789</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43784</c:v>
+                  <c:v>43790</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43785</c:v>
+                  <c:v>43791</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43786</c:v>
+                  <c:v>43792</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43787</c:v>
+                  <c:v>43793</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43788</c:v>
+                  <c:v>43794</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43789</c:v>
+                  <c:v>43795</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43790</c:v>
+                  <c:v>43796</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43791</c:v>
+                  <c:v>43797</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43792</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43793</c:v>
+                  <c:v>43799</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43794</c:v>
+                  <c:v>43800</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43795</c:v>
+                  <c:v>43801</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43796</c:v>
+                  <c:v>43802</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43797</c:v>
+                  <c:v>43803</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43798</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>43799</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43801</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>43802</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43803</c:v>
+                  <c:v>43804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weight Loss'!$C$2:$C$122</c:f>
+              <c:f>'Weight Loss'!$C$2:$C$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
                   <c:v>176.3</c:v>
                 </c:pt>
@@ -1157,6 +1144,18 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>161.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>160.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>159.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>159.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,10 +1202,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Weight Loss'!$A$2:$A$122</c:f>
+              <c:f>'Weight Loss'!$A$2:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
                   <c:v>43635</c:v>
                 </c:pt>
@@ -1481,104 +1480,89 @@
                   <c:v>43773</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43774</c:v>
+                  <c:v>43779</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43775</c:v>
+                  <c:v>43780</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43776</c:v>
+                  <c:v>43782</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43777</c:v>
+                  <c:v>43783</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43778</c:v>
+                  <c:v>43784</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43779</c:v>
+                  <c:v>43785</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43780</c:v>
+                  <c:v>43786</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43781</c:v>
+                  <c:v>43787</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43782</c:v>
+                  <c:v>43788</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43783</c:v>
+                  <c:v>43789</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43784</c:v>
+                  <c:v>43790</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43785</c:v>
+                  <c:v>43791</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43786</c:v>
+                  <c:v>43792</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43787</c:v>
+                  <c:v>43793</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43788</c:v>
+                  <c:v>43794</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43789</c:v>
+                  <c:v>43795</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43790</c:v>
+                  <c:v>43796</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43791</c:v>
+                  <c:v>43797</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43792</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43793</c:v>
+                  <c:v>43799</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43794</c:v>
+                  <c:v>43800</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43795</c:v>
+                  <c:v>43801</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43796</c:v>
+                  <c:v>43802</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43797</c:v>
+                  <c:v>43803</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43798</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>43799</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43801</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>43802</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43803</c:v>
+                  <c:v>43804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weight Loss'!$D$2:$D$122</c:f>
+              <c:f>'Weight Loss'!$D$2:$D$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="31">
                   <c:v>168</c:v>
                 </c:pt>
@@ -1760,94 +1744,79 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>161</c:v>
+                  <c:v>160.4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>161</c:v>
+                  <c:v>160.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>161</c:v>
+                  <c:v>160.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>160.9</c:v>
+                  <c:v>160.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>160.80000000000001</c:v>
+                  <c:v>159.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>160.70000000000002</c:v>
+                  <c:v>159.80000000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>160.60000000000002</c:v>
+                  <c:v>159.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>160.50000000000003</c:v>
+                  <c:v>159.60000000000005</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>160.40000000000003</c:v>
+                  <c:v>159.50000000000006</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>160.30000000000004</c:v>
+                  <c:v>159.40000000000006</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>160.20000000000005</c:v>
+                  <c:v>159.30000000000007</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>160.10000000000005</c:v>
+                  <c:v>159.20000000000007</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>160.00000000000006</c:v>
+                  <c:v>159.10000000000008</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>159.90000000000006</c:v>
+                  <c:v>159.00000000000009</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>159.80000000000007</c:v>
+                  <c:v>158.90000000000009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>159.70000000000007</c:v>
+                  <c:v>158.8000000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>159.60000000000008</c:v>
+                  <c:v>158.7000000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>159.50000000000009</c:v>
+                  <c:v>158.60000000000011</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>159.40000000000009</c:v>
+                  <c:v>158.50000000000011</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>159.3000000000001</c:v>
+                  <c:v>158.40000000000012</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>159.2000000000001</c:v>
+                  <c:v>158.30000000000013</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>159.10000000000011</c:v>
+                  <c:v>158.20000000000013</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>159.00000000000011</c:v>
+                  <c:v>158.10000000000014</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>158.90000000000012</c:v>
+                  <c:v>158.00000000000014</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>158.80000000000013</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>158.70000000000013</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>158.60000000000014</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>158.50000000000014</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>158.40000000000015</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>158.30000000000015</c:v>
+                  <c:v>157.90000000000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,13 +1885,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -2197,94 +2166,79 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2294,13 +2248,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$B$2:$B$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$B$2:$B$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2318,7 +2272,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$E$1</c15:sqref>
@@ -2353,16 +2307,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -2637,110 +2591,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$E$2:$E$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$E$2:$E$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>10.599999999999994</c:v>
                       </c:pt>
@@ -3009,13 +2948,25 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -3028,7 +2979,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$F$1</c15:sqref>
@@ -3063,16 +3014,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -3347,110 +3298,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$F$2:$F$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$F$2:$F$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>20.599999999999994</c:v>
                       </c:pt>
@@ -3719,13 +3655,25 @@
                         <c:v>3.8000000000000114</c:v>
                       </c:pt>
                       <c:pt idx="89">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
                         <c:v>3.8000000000000114</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -3738,7 +3686,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$G$1</c15:sqref>
@@ -3773,16 +3721,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -4057,110 +4005,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$G$2:$G$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$G$2:$G$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>32</c:v>
                       </c:pt>
@@ -4429,13 +4362,25 @@
                         <c:v>13.800000000000011</c:v>
                       </c:pt>
                       <c:pt idx="89">
+                        <c:v>13.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>13.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>13.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>13.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
                         <c:v>13.800000000000011</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -4448,7 +4393,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$H$1</c15:sqref>
@@ -4485,16 +4430,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -4769,110 +4714,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$H$2:$H$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$H$2:$H$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>175.6</c:v>
                       </c:pt>
@@ -5142,12 +5072,24 @@
                       </c:pt>
                       <c:pt idx="89">
                         <c:v>161.4</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>159.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>158.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>158.80000000000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -5160,7 +5102,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$I$1</c15:sqref>
@@ -5197,16 +5139,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -5481,110 +5423,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$I$2:$I$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$I$2:$I$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>177</c:v>
                       </c:pt>
@@ -5854,12 +5781,24 @@
                       </c:pt>
                       <c:pt idx="89">
                         <c:v>161.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>161.4</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>160</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -5872,7 +5811,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$J$1</c15:sqref>
@@ -5909,16 +5848,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -6193,115 +6132,100 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$J$2:$J$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$J$2:$J$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -6314,7 +6238,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$K$1</c15:sqref>
@@ -6351,16 +6275,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -6635,110 +6559,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$K$2:$K$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$K$2:$K$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="58">
                         <c:v>0</c:v>
                       </c:pt>
@@ -6834,12 +6743,15 @@
                       </c:pt>
                       <c:pt idx="89">
                         <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -6852,7 +6764,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$L$1</c15:sqref>
@@ -6889,16 +6801,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -7173,110 +7085,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$L$2:$L$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$L$2:$L$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="58">
                         <c:v>0</c:v>
                       </c:pt>
@@ -7347,7 +7244,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -7360,7 +7257,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$M$1</c15:sqref>
@@ -7397,16 +7294,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -7681,110 +7578,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$M$2:$M$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$M$2:$M$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="63">
                         <c:v>0</c:v>
                       </c:pt>
@@ -7807,7 +7689,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -7820,7 +7702,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$N$1</c15:sqref>
@@ -7858,16 +7740,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -8142,110 +8024,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$N$2:$N$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$N$2:$N$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="77">
                         <c:v>0</c:v>
                       </c:pt>
@@ -8256,7 +8123,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -8269,7 +8136,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$O$1</c15:sqref>
@@ -8307,16 +8174,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -8591,110 +8458,95 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$O$2:$O$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$O$2:$O$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="73">
                         <c:v>0</c:v>
                       </c:pt>
@@ -8705,7 +8557,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -8718,7 +8570,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$P$1</c15:sqref>
@@ -8756,16 +8608,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -9040,115 +8892,100 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$P$2:$P$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$P$2:$P$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -9161,7 +8998,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$Q$1</c15:sqref>
@@ -9199,16 +9036,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -9483,118 +9320,106 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$Q$2:$Q$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$Q$2:$Q$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="85">
                         <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -9607,7 +9432,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$R$1</c15:sqref>
@@ -9645,16 +9470,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -9929,118 +9754,103 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$R$2:$R$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$R$2:$R$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
-                      <c:pt idx="89">
+                      <c:ptCount val="116"/>
+                      <c:pt idx="88">
                         <c:v>12</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -10053,7 +9863,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$S$1</c15:sqref>
@@ -10091,16 +9901,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -10375,118 +10185,106 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$S$2:$S$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$S$2:$S$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
-                      <c:pt idx="89">
+                      <c:ptCount val="116"/>
+                      <c:pt idx="88">
                         <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>30</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -10499,7 +10297,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$T$1</c15:sqref>
@@ -10536,16 +10334,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -10820,118 +10618,103 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$T$2:$T$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$T$2:$T$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
-                      <c:pt idx="89">
+                      <c:ptCount val="116"/>
+                      <c:pt idx="88">
                         <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -10944,7 +10727,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Weight Loss'!$U$1</c15:sqref>
@@ -10981,16 +10764,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$A$2:$A$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$A$2:$A$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                       <c:pt idx="0">
                         <c:v>43635</c:v>
                       </c:pt>
@@ -11265,115 +11048,100 @@
                         <c:v>43773</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>43774</c:v>
+                        <c:v>43779</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>43775</c:v>
+                        <c:v>43780</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>43776</c:v>
+                        <c:v>43782</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>43777</c:v>
+                        <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43778</c:v>
+                        <c:v>43784</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43779</c:v>
+                        <c:v>43785</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43780</c:v>
+                        <c:v>43786</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43781</c:v>
+                        <c:v>43787</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43782</c:v>
+                        <c:v>43788</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43783</c:v>
+                        <c:v>43789</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43784</c:v>
+                        <c:v>43790</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43785</c:v>
+                        <c:v>43791</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43786</c:v>
+                        <c:v>43792</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43787</c:v>
+                        <c:v>43793</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43788</c:v>
+                        <c:v>43794</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43789</c:v>
+                        <c:v>43795</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43790</c:v>
+                        <c:v>43796</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43791</c:v>
+                        <c:v>43797</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43792</c:v>
+                        <c:v>43798</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43793</c:v>
+                        <c:v>43799</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43794</c:v>
+                        <c:v>43800</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43795</c:v>
+                        <c:v>43801</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43796</c:v>
+                        <c:v>43802</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43797</c:v>
+                        <c:v>43803</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43798</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>43799</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>43800</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>43801</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>43802</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>43803</c:v>
+                        <c:v>43804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$U$2:$U$122</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$U$2:$U$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="121"/>
+                      <c:ptCount val="116"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-6C79-44BF-B93B-940E6841F081}"/>
                   </c:ext>
@@ -12455,13 +12223,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAE741-4166-4A0E-BA42-5DD919C731FB}">
-  <dimension ref="A1:U122"/>
+  <dimension ref="A1:U117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13424,7 +13192,7 @@
         <v>167.8</v>
       </c>
       <c r="D34">
-        <f>D33-(A34-A33)*0.1</f>
+        <f t="shared" ref="D34:D65" si="1">D33-(A34-A33)*0.1</f>
         <v>167.9</v>
       </c>
       <c r="E34">
@@ -13455,7 +13223,7 @@
         <v>167.3</v>
       </c>
       <c r="D35">
-        <f>D34-(A35-A34)*0.1</f>
+        <f t="shared" si="1"/>
         <v>167.6</v>
       </c>
       <c r="E35">
@@ -13486,7 +13254,7 @@
         <v>165</v>
       </c>
       <c r="D36">
-        <f>D35-(A36-A35)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.9</v>
       </c>
       <c r="E36">
@@ -13517,7 +13285,7 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <f>D36-(A37-A36)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.8</v>
       </c>
       <c r="E37">
@@ -13548,7 +13316,7 @@
         <v>165</v>
       </c>
       <c r="D38">
-        <f>D37-(A38-A37)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.60000000000002</v>
       </c>
       <c r="E38">
@@ -13579,7 +13347,7 @@
         <v>164.8</v>
       </c>
       <c r="D39">
-        <f>D38-(A39-A38)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.50000000000003</v>
       </c>
       <c r="E39">
@@ -13610,7 +13378,7 @@
         <v>163.80000000000001</v>
       </c>
       <c r="D40">
-        <f>D39-(A40-A39)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.40000000000003</v>
       </c>
       <c r="E40">
@@ -13641,7 +13409,7 @@
         <v>165.89999999999998</v>
       </c>
       <c r="D41">
-        <f>D40-(A41-A40)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.30000000000004</v>
       </c>
       <c r="E41">
@@ -13672,7 +13440,7 @@
         <v>165.2</v>
       </c>
       <c r="D42">
-        <f>D41-(A42-A41)*0.1</f>
+        <f t="shared" si="1"/>
         <v>166.20000000000005</v>
       </c>
       <c r="E42">
@@ -13703,7 +13471,7 @@
         <v>165</v>
       </c>
       <c r="D43">
-        <f>D42-(A43-A42)*0.1</f>
+        <f t="shared" si="1"/>
         <v>165.90000000000003</v>
       </c>
       <c r="E43">
@@ -13734,7 +13502,7 @@
         <v>163.6</v>
       </c>
       <c r="D44">
-        <f>D43-(A44-A43)*0.1</f>
+        <f t="shared" si="1"/>
         <v>165.80000000000004</v>
       </c>
       <c r="E44">
@@ -13765,7 +13533,7 @@
         <v>163.9</v>
       </c>
       <c r="D45">
-        <f>D44-(A45-A44)*0.1</f>
+        <f t="shared" si="1"/>
         <v>165.70000000000005</v>
       </c>
       <c r="E45">
@@ -13796,7 +13564,7 @@
         <v>165.3</v>
       </c>
       <c r="D46">
-        <f>D45-(A46-A45)*0.1</f>
+        <f t="shared" si="1"/>
         <v>165.60000000000005</v>
       </c>
       <c r="E46">
@@ -13827,7 +13595,7 @@
         <v>163.4</v>
       </c>
       <c r="D47">
-        <f>D46-(A47-A46)*0.1</f>
+        <f t="shared" si="1"/>
         <v>165.10000000000005</v>
       </c>
       <c r="E47">
@@ -13858,7 +13626,7 @@
         <v>164.4</v>
       </c>
       <c r="D48">
-        <f>D47-(A48-A47)*0.1</f>
+        <f t="shared" si="1"/>
         <v>164.90000000000006</v>
       </c>
       <c r="E48">
@@ -13889,7 +13657,7 @@
         <v>163.6</v>
       </c>
       <c r="D49">
-        <f>D48-(A49-A48)*0.1</f>
+        <f t="shared" si="1"/>
         <v>164.80000000000007</v>
       </c>
       <c r="E49">
@@ -13920,7 +13688,7 @@
         <v>164.6</v>
       </c>
       <c r="D50">
-        <f>D49-(A50-A49)*0.1</f>
+        <f t="shared" si="1"/>
         <v>164.60000000000008</v>
       </c>
       <c r="E50">
@@ -13951,7 +13719,7 @@
         <v>164</v>
       </c>
       <c r="D51">
-        <f>D50-(A51-A50)*0.1</f>
+        <f t="shared" si="1"/>
         <v>164.40000000000009</v>
       </c>
       <c r="E51">
@@ -13982,7 +13750,7 @@
         <v>163.80000000000001</v>
       </c>
       <c r="D52">
-        <f>D51-(A52-A51)*0.1</f>
+        <f t="shared" si="1"/>
         <v>164.2000000000001</v>
       </c>
       <c r="E52">
@@ -14013,7 +13781,7 @@
         <v>164.8</v>
       </c>
       <c r="D53">
-        <f>D52-(A53-A52)*0.1</f>
+        <f t="shared" si="1"/>
         <v>164.00000000000011</v>
       </c>
       <c r="E53">
@@ -14044,7 +13812,7 @@
         <v>164.3</v>
       </c>
       <c r="D54">
-        <f>D53-(A54-A53)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.90000000000012</v>
       </c>
       <c r="E54">
@@ -14075,7 +13843,7 @@
         <v>163.5</v>
       </c>
       <c r="D55">
-        <f>D54-(A55-A54)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.70000000000013</v>
       </c>
       <c r="E55">
@@ -14106,7 +13874,7 @@
         <v>163.4</v>
       </c>
       <c r="D56">
-        <f>D55-(A56-A55)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.60000000000014</v>
       </c>
       <c r="E56">
@@ -14137,7 +13905,7 @@
         <v>163.4</v>
       </c>
       <c r="D57">
-        <f>D56-(A57-A56)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.40000000000015</v>
       </c>
       <c r="E57">
@@ -14168,7 +13936,7 @@
         <v>162.6</v>
       </c>
       <c r="D58">
-        <f>D57-(A58-A57)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.20000000000016</v>
       </c>
       <c r="E58">
@@ -14199,7 +13967,7 @@
         <v>162.80000000000001</v>
       </c>
       <c r="D59">
-        <f>D58-(A59-A58)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.10000000000016</v>
       </c>
       <c r="E59">
@@ -14230,7 +13998,7 @@
         <v>162.94999999999999</v>
       </c>
       <c r="D60">
-        <f>D59-(A60-A59)*0.1</f>
+        <f t="shared" si="1"/>
         <v>163.00000000000017</v>
       </c>
       <c r="E60">
@@ -14267,7 +14035,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="D61">
-        <f>D60-(A61-A60)*0.1</f>
+        <f t="shared" si="1"/>
         <v>162.90000000000018</v>
       </c>
       <c r="E61">
@@ -14289,7 +14057,7 @@
         <v>163.4</v>
       </c>
       <c r="K61">
-        <f>K60+1-IF(ISBLANK(L61),0,1)-IF(ISBLANK(M61),0,1)-IF(ISBLANK(N61),0,1)</f>
+        <f t="shared" ref="K61:K92" si="2">K60+1-IF(ISBLANK(L61),0,1)-IF(ISBLANK(M61),0,1)-IF(ISBLANK(N61),0,1)</f>
         <v>0</v>
       </c>
       <c r="L61" t="s">
@@ -14305,7 +14073,7 @@
         <v>162.85</v>
       </c>
       <c r="D62">
-        <f>D61-(A62-A61)*0.1</f>
+        <f t="shared" si="1"/>
         <v>162.80000000000018</v>
       </c>
       <c r="E62">
@@ -14327,7 +14095,7 @@
         <v>163.5</v>
       </c>
       <c r="K62">
-        <f>K61+1-IF(ISBLANK(L62),0,1)-IF(ISBLANK(M62),0,1)-IF(ISBLANK(N62),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L62" t="s">
@@ -14343,7 +14111,7 @@
         <v>162.5</v>
       </c>
       <c r="D63">
-        <f>D62-(A63-A62)*0.1</f>
+        <f t="shared" si="1"/>
         <v>162.70000000000019</v>
       </c>
       <c r="E63">
@@ -14365,7 +14133,7 @@
         <v>163</v>
       </c>
       <c r="K63">
-        <f>K62+1-IF(ISBLANK(L63),0,1)-IF(ISBLANK(M63),0,1)-IF(ISBLANK(N63),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L63" t="s">
@@ -14381,7 +14149,7 @@
         <v>163.30000000000001</v>
       </c>
       <c r="D64">
-        <f>D63-(A64-A63)*0.1</f>
+        <f t="shared" si="1"/>
         <v>162.60000000000019</v>
       </c>
       <c r="E64">
@@ -14403,7 +14171,7 @@
         <v>163.6</v>
       </c>
       <c r="K64">
-        <f>K63+1-IF(ISBLANK(L64),0,1)-IF(ISBLANK(M64),0,1)-IF(ISBLANK(N64),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L64" t="s">
@@ -14419,7 +14187,7 @@
         <v>162.1</v>
       </c>
       <c r="D65">
-        <f>D64-(A65-A64)*0.1</f>
+        <f t="shared" si="1"/>
         <v>162.5000000000002</v>
       </c>
       <c r="E65">
@@ -14441,7 +14209,7 @@
         <v>162.6</v>
       </c>
       <c r="K65">
-        <f>K64+1-IF(ISBLANK(L65),0,1)-IF(ISBLANK(M65),0,1)-IF(ISBLANK(N65),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L65" t="s">
@@ -14456,11 +14224,11 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C91" si="1">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C95" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
-        <f>D65-(A66-A65)*0.1</f>
+        <f t="shared" ref="D66:D88" si="4">D65-(A66-A65)*0.1</f>
         <v>162.4000000000002</v>
       </c>
       <c r="E66">
@@ -14482,7 +14250,7 @@
         <v>163</v>
       </c>
       <c r="K66">
-        <f>K65+1-IF(ISBLANK(L66),0,1)-IF(ISBLANK(M66),0,1)-IF(ISBLANK(N66),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L66" t="s">
@@ -14494,11 +14262,11 @@
         <v>43746</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.4</v>
       </c>
       <c r="D67">
-        <f>D66-(A67-A66)*0.1</f>
+        <f t="shared" si="4"/>
         <v>162.30000000000021</v>
       </c>
       <c r="E67">
@@ -14520,7 +14288,7 @@
         <v>162.4</v>
       </c>
       <c r="K67">
-        <f>K66+1-IF(ISBLANK(L67),0,1)-IF(ISBLANK(M67),0,1)-IF(ISBLANK(N67),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L67" t="s">
@@ -14532,11 +14300,11 @@
         <v>43747</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.6</v>
       </c>
       <c r="D68">
-        <f>D67-(A68-A67)*0.1</f>
+        <f t="shared" si="4"/>
         <v>162.20000000000022</v>
       </c>
       <c r="E68">
@@ -14558,7 +14326,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="K68">
-        <f>K67+1-IF(ISBLANK(L68),0,1)-IF(ISBLANK(M68),0,1)-IF(ISBLANK(N68),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L68" t="s">
@@ -14570,11 +14338,11 @@
         <v>43748</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.1</v>
       </c>
       <c r="D69">
-        <f>D68-(A69-A68)*0.1</f>
+        <f t="shared" si="4"/>
         <v>162.10000000000022</v>
       </c>
       <c r="E69">
@@ -14596,7 +14364,7 @@
         <v>162.6</v>
       </c>
       <c r="K69">
-        <f>K68+1-IF(ISBLANK(L69),0,1)-IF(ISBLANK(M69),0,1)-IF(ISBLANK(N69),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L69" t="s">
@@ -14608,11 +14376,11 @@
         <v>43749</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="D70">
-        <f>D69-(A70-A69)*0.1</f>
+        <f t="shared" si="4"/>
         <v>162.00000000000023</v>
       </c>
       <c r="E70">
@@ -14634,7 +14402,7 @@
         <v>162.6</v>
       </c>
       <c r="K70">
-        <f>K69+1-IF(ISBLANK(L70),0,1)-IF(ISBLANK(M70),0,1)-IF(ISBLANK(N70),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L70" t="s">
@@ -14646,11 +14414,11 @@
         <v>43750</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.30000000000001</v>
       </c>
       <c r="D71">
-        <f>D70-(A71-A70)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.90000000000023</v>
       </c>
       <c r="E71">
@@ -14672,7 +14440,7 @@
         <v>163.80000000000001</v>
       </c>
       <c r="K71">
-        <f>K70+1-IF(ISBLANK(L71),0,1)-IF(ISBLANK(M71),0,1)-IF(ISBLANK(N71),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L71" t="s">
@@ -14684,11 +14452,11 @@
         <v>43751</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.69999999999999</v>
       </c>
       <c r="D72">
-        <f>D71-(A72-A71)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.80000000000024</v>
       </c>
       <c r="E72">
@@ -14710,7 +14478,7 @@
         <v>162.4</v>
       </c>
       <c r="K72">
-        <f>K71+1-IF(ISBLANK(L72),0,1)-IF(ISBLANK(M72),0,1)-IF(ISBLANK(N72),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="L72" t="s">
@@ -14722,11 +14490,11 @@
         <v>43752</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.19999999999999</v>
       </c>
       <c r="D73">
-        <f>D72-(A73-A72)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.70000000000024</v>
       </c>
       <c r="E73">
@@ -14748,7 +14516,7 @@
         <v>164</v>
       </c>
       <c r="K73">
-        <f>K72+1-IF(ISBLANK(L73),0,1)-IF(ISBLANK(M73),0,1)-IF(ISBLANK(N73),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="L73" t="s">
@@ -14763,11 +14531,11 @@
         <v>43753</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.30000000000001</v>
       </c>
       <c r="D74">
-        <f>D73-(A74-A73)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.60000000000025</v>
       </c>
       <c r="E74">
@@ -14789,7 +14557,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="K74">
-        <f>K73+1-IF(ISBLANK(L74),0,1)-IF(ISBLANK(M74),0,1)-IF(ISBLANK(N74),0,1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -14798,11 +14566,11 @@
         <v>43754</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.60000000000002</v>
       </c>
       <c r="D75">
-        <f>D74-(A75-A74)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.50000000000026</v>
       </c>
       <c r="E75">
@@ -14824,7 +14592,7 @@
         <v>163.4</v>
       </c>
       <c r="K75">
-        <f>K74+1-IF(ISBLANK(L75),0,1)-IF(ISBLANK(M75),0,1)-IF(ISBLANK(N75),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O75" t="s">
@@ -14836,11 +14604,11 @@
         <v>43755</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.80000000000001</v>
       </c>
       <c r="D76">
-        <f>D75-(A76-A75)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.40000000000026</v>
       </c>
       <c r="E76">
@@ -14862,7 +14630,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="K76">
-        <f>K75+1-IF(ISBLANK(L76),0,1)-IF(ISBLANK(M76),0,1)-IF(ISBLANK(N76),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L76" t="s">
@@ -14874,11 +14642,11 @@
         <v>43756</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.80000000000001</v>
       </c>
       <c r="D77">
-        <f>D76-(A77-A76)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.30000000000027</v>
       </c>
       <c r="E77">
@@ -14900,7 +14668,7 @@
         <v>163.6</v>
       </c>
       <c r="K77">
-        <f>K76+1-IF(ISBLANK(L77),0,1)-IF(ISBLANK(M77),0,1)-IF(ISBLANK(N77),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14909,11 +14677,11 @@
         <v>43757</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.80000000000001</v>
       </c>
       <c r="D78">
-        <f>D77-(A78-A77)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.20000000000027</v>
       </c>
       <c r="E78">
@@ -14935,7 +14703,7 @@
         <v>163</v>
       </c>
       <c r="K78">
-        <f>K77+1-IF(ISBLANK(L78),0,1)-IF(ISBLANK(M78),0,1)-IF(ISBLANK(N78),0,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -14944,11 +14712,11 @@
         <v>43758</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.89999999999998</v>
       </c>
       <c r="D79">
-        <f>D78-(A79-A78)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.10000000000028</v>
       </c>
       <c r="E79">
@@ -14970,7 +14738,7 @@
         <v>165.6</v>
       </c>
       <c r="K79">
-        <f>K78+1-IF(ISBLANK(L79),0,1)-IF(ISBLANK(M79),0,1)-IF(ISBLANK(N79),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L79" t="s">
@@ -14988,11 +14756,11 @@
         <v>43759</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>163.19999999999999</v>
       </c>
       <c r="D80">
-        <f>D79-(A80-A79)*0.1</f>
+        <f t="shared" si="4"/>
         <v>161.00000000000028</v>
       </c>
       <c r="E80">
@@ -15014,7 +14782,7 @@
         <v>163.4</v>
       </c>
       <c r="K80">
-        <f>K79+1-IF(ISBLANK(L80),0,1)-IF(ISBLANK(M80),0,1)-IF(ISBLANK(N80),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L80" t="s">
@@ -15026,11 +14794,11 @@
         <v>43760</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.69999999999999</v>
       </c>
       <c r="D81">
-        <f>D80-(A81-A80)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.90000000000029</v>
       </c>
       <c r="E81">
@@ -15052,7 +14820,7 @@
         <v>163</v>
       </c>
       <c r="K81">
-        <f>K80+1-IF(ISBLANK(L81),0,1)-IF(ISBLANK(M81),0,1)-IF(ISBLANK(N81),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15061,11 +14829,11 @@
         <v>43761</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="D82">
-        <f>D81-(A82-A81)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.8000000000003</v>
       </c>
       <c r="E82">
@@ -15087,7 +14855,7 @@
         <v>163</v>
       </c>
       <c r="K82">
-        <f>K81+1-IF(ISBLANK(L82),0,1)-IF(ISBLANK(M82),0,1)-IF(ISBLANK(N82),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L82" t="s">
@@ -15099,11 +14867,11 @@
         <v>43762</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.30000000000001</v>
       </c>
       <c r="D83">
-        <f>D82-(A83-A82)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.7000000000003</v>
       </c>
       <c r="E83">
@@ -15125,7 +14893,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="K83">
-        <f>K82+1-IF(ISBLANK(L83),0,1)-IF(ISBLANK(M83),0,1)-IF(ISBLANK(N83),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L83" t="s">
@@ -15137,11 +14905,11 @@
         <v>43763</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.80000000000001</v>
       </c>
       <c r="D84">
-        <f>D83-(A84-A83)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.60000000000031</v>
       </c>
       <c r="E84">
@@ -15163,7 +14931,7 @@
         <v>160.80000000000001</v>
       </c>
       <c r="K84">
-        <f>K83+1-IF(ISBLANK(L84),0,1)-IF(ISBLANK(M84),0,1)-IF(ISBLANK(N84),0,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -15172,11 +14940,11 @@
         <v>43766</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.30000000000001</v>
       </c>
       <c r="D85">
-        <f>D84-(A85-A84)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.3000000000003</v>
       </c>
       <c r="E85">
@@ -15198,7 +14966,7 @@
         <v>161.4</v>
       </c>
       <c r="K85">
-        <f>K84+1-IF(ISBLANK(L85),0,1)-IF(ISBLANK(M85),0,1)-IF(ISBLANK(N85),0,1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L85" t="s">
@@ -15216,11 +14984,11 @@
         <v>43767</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="D86">
-        <f>D85-(A86-A85)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.2000000000003</v>
       </c>
       <c r="E86">
@@ -15242,7 +15010,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="K86">
-        <f>K85+1-IF(ISBLANK(L86),0,1)-IF(ISBLANK(M86),0,1)-IF(ISBLANK(N86),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O86" t="s">
@@ -15254,11 +15022,11 @@
         <v>43768</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.1</v>
       </c>
       <c r="D87">
-        <f>D86-(A87-A86)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.10000000000031</v>
       </c>
       <c r="E87">
@@ -15278,7 +15046,7 @@
         <v>161</v>
       </c>
       <c r="K87">
-        <f>K86+1-IF(ISBLANK(L87),0,1)-IF(ISBLANK(M87),0,1)-IF(ISBLANK(N87),0,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q87">
@@ -15290,11 +15058,11 @@
         <v>43769</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.69999999999999</v>
       </c>
       <c r="D88">
-        <f>D87-(A88-A87)*0.1</f>
+        <f t="shared" si="4"/>
         <v>160.00000000000031</v>
       </c>
       <c r="E88">
@@ -15314,7 +15082,7 @@
         <v>164</v>
       </c>
       <c r="K88">
-        <f>K87+1-IF(ISBLANK(L88),0,1)-IF(ISBLANK(M88),0,1)-IF(ISBLANK(N88),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L88" t="s">
@@ -15329,7 +15097,7 @@
         <v>43770</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.30000000000001</v>
       </c>
       <c r="D89">
@@ -15352,7 +15120,7 @@
         <v>161.4</v>
       </c>
       <c r="K89">
-        <f>K88+1-IF(ISBLANK(L89),0,1)-IF(ISBLANK(M89),0,1)-IF(ISBLANK(N89),0,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -15361,11 +15129,11 @@
         <v>43771</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>162.69999999999999</v>
       </c>
       <c r="D90">
-        <f t="shared" ref="D90:D98" si="2">D89</f>
+        <f t="shared" ref="D90:D92" si="5">D89</f>
         <v>161</v>
       </c>
       <c r="E90">
@@ -15385,7 +15153,7 @@
         <v>166</v>
       </c>
       <c r="K90">
-        <f>K89+1-IF(ISBLANK(L90),0,1)-IF(ISBLANK(M90),0,1)-IF(ISBLANK(N90),0,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L90" t="s">
@@ -15393,6 +15161,15 @@
       </c>
       <c r="M90" t="s">
         <v>39</v>
+      </c>
+      <c r="R90">
+        <v>12</v>
+      </c>
+      <c r="S90">
+        <v>20</v>
+      </c>
+      <c r="T90">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -15400,11 +15177,11 @@
         <v>43772</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161.60000000000002</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f>D90</f>
         <v>161</v>
       </c>
       <c r="E91">
@@ -15424,296 +15201,332 @@
         <v>161.80000000000001</v>
       </c>
       <c r="K91">
-        <f>K90+1-IF(ISBLANK(L91),0,1)-IF(ISBLANK(M91),0,1)-IF(ISBLANK(N91),0,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="R91">
-        <v>12</v>
-      </c>
-      <c r="S91">
-        <v>20</v>
-      </c>
-      <c r="T91">
-        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43773</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>160.60000000000002</v>
+      </c>
       <c r="D92">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="E92">
+        <f>MAX(IF($H92-165&lt;MIN($E$2:$E91),$H92-165,MIN($E$2:$E91)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="G92">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="H92">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="I92">
+        <v>161.4</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
+      </c>
+      <c r="S92">
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>43774</v>
+        <v>43779</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>159.9</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f>D92-(A93-A92)*0.1</f>
+        <v>160.4</v>
+      </c>
+      <c r="E93">
+        <f>MAX(IF($H93-165&lt;MIN($E$2:$E92),$H93-165,MIN($E$2:$E92)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="G93">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="H93">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="I93">
         <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>43775</v>
+        <v>43780</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>159.5</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
-        <v>161</v>
+        <f t="shared" ref="D94:D117" si="6">D93-(A94-A93)*0.1</f>
+        <v>160.30000000000001</v>
+      </c>
+      <c r="E94">
+        <f>MAX(IF($H94-165&lt;MIN($E$2:$E93),$H94-165,MIN($E$2:$E93)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="G94">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="H94">
+        <v>159</v>
+      </c>
+      <c r="I94">
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>43776</v>
+        <v>43782</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>159.4</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
-        <v>161</v>
+        <f t="shared" si="6"/>
+        <v>160.10000000000002</v>
+      </c>
+      <c r="E95">
+        <f>MAX(IF($H95-165&lt;MIN($E$2:$E94),$H95-165,MIN($E$2:$E94)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="G95">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="H95">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="I95">
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>43777</v>
+        <v>43783</v>
       </c>
       <c r="D96">
         <f>D95-(A96-A95)*0.1</f>
-        <v>160.9</v>
+        <v>160.00000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>43778</v>
+        <v>43784</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D122" si="3">D96-(A97-A96)*0.1</f>
-        <v>160.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>159.90000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>43779</v>
+        <v>43785</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
-        <v>160.70000000000002</v>
+        <f t="shared" si="6"/>
+        <v>159.80000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>43780</v>
+        <v>43786</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
-        <v>160.60000000000002</v>
+        <f t="shared" si="6"/>
+        <v>159.70000000000005</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>43781</v>
+        <v>43787</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
-        <v>160.50000000000003</v>
+        <f t="shared" si="6"/>
+        <v>159.60000000000005</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>43782</v>
+        <v>43788</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
-        <v>160.40000000000003</v>
+        <f t="shared" si="6"/>
+        <v>159.50000000000006</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>43783</v>
+        <v>43789</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
-        <v>160.30000000000004</v>
+        <f t="shared" si="6"/>
+        <v>159.40000000000006</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>43784</v>
+        <v>43790</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
-        <v>160.20000000000005</v>
+        <f t="shared" si="6"/>
+        <v>159.30000000000007</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>43785</v>
+        <v>43791</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
-        <v>160.10000000000005</v>
+        <f t="shared" si="6"/>
+        <v>159.20000000000007</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>43786</v>
+        <v>43792</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
-        <v>160.00000000000006</v>
+        <f t="shared" si="6"/>
+        <v>159.10000000000008</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>43787</v>
+        <v>43793</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
-        <v>159.90000000000006</v>
+        <f t="shared" si="6"/>
+        <v>159.00000000000009</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>43788</v>
+        <v>43794</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
-        <v>159.80000000000007</v>
+        <f t="shared" si="6"/>
+        <v>158.90000000000009</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>43789</v>
+        <v>43795</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
-        <v>159.70000000000007</v>
+        <f t="shared" si="6"/>
+        <v>158.8000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>43790</v>
+        <v>43796</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
-        <v>159.60000000000008</v>
+        <f t="shared" si="6"/>
+        <v>158.7000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>43791</v>
+        <v>43797</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
-        <v>159.50000000000009</v>
+        <f t="shared" si="6"/>
+        <v>158.60000000000011</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>43792</v>
+        <v>43798</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
-        <v>159.40000000000009</v>
+        <f t="shared" si="6"/>
+        <v>158.50000000000011</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>43793</v>
+        <v>43799</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
-        <v>159.3000000000001</v>
+        <f t="shared" si="6"/>
+        <v>158.40000000000012</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>43794</v>
+        <v>43800</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
-        <v>159.2000000000001</v>
+        <f t="shared" si="6"/>
+        <v>158.30000000000013</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>43795</v>
+        <v>43801</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
-        <v>159.10000000000011</v>
+        <f t="shared" si="6"/>
+        <v>158.20000000000013</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>43796</v>
+        <v>43802</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
-        <v>159.00000000000011</v>
+        <f t="shared" si="6"/>
+        <v>158.10000000000014</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>43797</v>
+        <v>43803</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
-        <v>158.90000000000012</v>
+        <f t="shared" si="6"/>
+        <v>158.00000000000014</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>43798</v>
+        <v>43804</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
-        <v>158.80000000000013</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>43799</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="3"/>
-        <v>158.70000000000013</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>43800</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="3"/>
-        <v>158.60000000000014</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>43801</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="3"/>
-        <v>158.50000000000014</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>43802</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="3"/>
-        <v>158.40000000000015</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>43803</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="3"/>
-        <v>158.30000000000015</v>
+        <f t="shared" si="6"/>
+        <v>157.90000000000015</v>
       </c>
     </row>
   </sheetData>
@@ -15726,8 +15539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED39C80-6C53-4422-B100-9B74FDDF1906}">
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15742,9 +15555,7 @@
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>41</v>
       </c>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D09F6-9AC1-4631-8DB2-761380A048E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DC4A7-1C94-429E-BB81-79985C637C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2292" yWindow="720" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Loss" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +37,30 @@
     <author>Roger Lester Palabasan</author>
   </authors>
   <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{754A832A-D087-41A6-877C-F00F156163B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roger Lester Palabasan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pre 12/25 - Meat3</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{8D5E443D-3C64-4FFF-9072-D8328E1BEF09}">
       <text>
         <r>
@@ -163,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -199,12 +222,6 @@
   </si>
   <si>
     <t>Meat 1</t>
-  </si>
-  <si>
-    <t>Meat 2</t>
-  </si>
-  <si>
-    <t>Meat 3</t>
   </si>
   <si>
     <t>Halal</t>
@@ -804,67 +821,67 @@
                   <c:v>43783</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43784</c:v>
+                  <c:v>43824</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43785</c:v>
+                  <c:v>43825</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43786</c:v>
+                  <c:v>43826</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43787</c:v>
+                  <c:v>43827</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43788</c:v>
+                  <c:v>43828</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43789</c:v>
+                  <c:v>43829</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43790</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43791</c:v>
+                  <c:v>43831</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43792</c:v>
+                  <c:v>43832</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43793</c:v>
+                  <c:v>43833</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43794</c:v>
+                  <c:v>43834</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43795</c:v>
+                  <c:v>43835</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43796</c:v>
+                  <c:v>43836</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43797</c:v>
+                  <c:v>43837</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43798</c:v>
+                  <c:v>43838</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43799</c:v>
+                  <c:v>43839</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43800</c:v>
+                  <c:v>43840</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43801</c:v>
+                  <c:v>43841</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43802</c:v>
+                  <c:v>43842</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43803</c:v>
+                  <c:v>43843</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43804</c:v>
+                  <c:v>43844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,6 +1173,12 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>159.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>159.85</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>164.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,67 +1515,67 @@
                   <c:v>43783</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43784</c:v>
+                  <c:v>43824</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43785</c:v>
+                  <c:v>43825</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43786</c:v>
+                  <c:v>43826</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43787</c:v>
+                  <c:v>43827</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43788</c:v>
+                  <c:v>43828</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43789</c:v>
+                  <c:v>43829</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43790</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43791</c:v>
+                  <c:v>43831</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43792</c:v>
+                  <c:v>43832</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43793</c:v>
+                  <c:v>43833</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43794</c:v>
+                  <c:v>43834</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43795</c:v>
+                  <c:v>43835</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43796</c:v>
+                  <c:v>43836</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43797</c:v>
+                  <c:v>43837</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43798</c:v>
+                  <c:v>43838</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43799</c:v>
+                  <c:v>43839</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43800</c:v>
+                  <c:v>43840</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43801</c:v>
+                  <c:v>43841</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43802</c:v>
+                  <c:v>43842</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43803</c:v>
+                  <c:v>43843</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43804</c:v>
+                  <c:v>43844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,67 +1779,67 @@
                   <c:v>160.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>159.90000000000003</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>159.80000000000004</c:v>
+                  <c:v>164.9</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>159.70000000000005</c:v>
+                  <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>159.60000000000005</c:v>
+                  <c:v>164.70000000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>159.50000000000006</c:v>
+                  <c:v>164.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>159.40000000000006</c:v>
+                  <c:v>164.50000000000003</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>159.30000000000007</c:v>
+                  <c:v>164.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>159.20000000000007</c:v>
+                  <c:v>164.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>159.10000000000008</c:v>
+                  <c:v>164.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>159.00000000000009</c:v>
+                  <c:v>164.10000000000005</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>158.90000000000009</c:v>
+                  <c:v>164.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>158.8000000000001</c:v>
+                  <c:v>163.90000000000006</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>158.7000000000001</c:v>
+                  <c:v>163.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>158.60000000000011</c:v>
+                  <c:v>163.70000000000007</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>158.50000000000011</c:v>
+                  <c:v>163.60000000000008</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>158.40000000000012</c:v>
+                  <c:v>163.50000000000009</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>158.30000000000013</c:v>
+                  <c:v>163.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>158.20000000000013</c:v>
+                  <c:v>163.3000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>158.10000000000014</c:v>
+                  <c:v>163.2000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>158.00000000000014</c:v>
+                  <c:v>163.10000000000011</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>157.90000000000015</c:v>
+                  <c:v>163.00000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,67 +2201,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2603,67 +2626,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2960,6 +2983,12 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3310,67 +3339,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3668,6 +3697,12 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>3.8000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4017,67 +4052,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4375,6 +4410,12 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>13.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>13.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4726,67 +4767,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5084,6 +5125,12 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>158.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>159.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>163</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5435,67 +5482,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5793,6 +5840,12 @@
                       </c:pt>
                       <c:pt idx="93">
                         <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>160.5</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>166</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6144,67 +6197,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6571,67 +6624,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7097,67 +7150,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7266,9 +7319,6 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Meat 2</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -7590,67 +7640,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7712,7 +7762,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Meat 3</c:v>
+                        <c:v>Heaviest</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -8036,67 +8086,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8118,6 +8168,9 @@
                       </c:pt>
                       <c:pt idx="83">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>166</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8470,67 +8523,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8904,67 +8957,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9332,67 +9385,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9766,67 +9819,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9845,6 +9898,9 @@
                       <c:ptCount val="116"/>
                       <c:pt idx="88">
                         <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10197,67 +10253,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10279,6 +10335,9 @@
                       </c:pt>
                       <c:pt idx="90">
                         <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>50</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10630,67 +10689,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11060,67 +11119,67 @@
                         <c:v>43783</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>43784</c:v>
+                        <c:v>43824</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>43785</c:v>
+                        <c:v>43825</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>43786</c:v>
+                        <c:v>43826</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>43787</c:v>
+                        <c:v>43827</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>43788</c:v>
+                        <c:v>43828</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>43789</c:v>
+                        <c:v>43829</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>43790</c:v>
+                        <c:v>43830</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>43791</c:v>
+                        <c:v>43831</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>43792</c:v>
+                        <c:v>43832</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>43793</c:v>
+                        <c:v>43833</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>43794</c:v>
+                        <c:v>43834</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>43795</c:v>
+                        <c:v>43835</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>43796</c:v>
+                        <c:v>43836</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>43797</c:v>
+                        <c:v>43837</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>43798</c:v>
+                        <c:v>43838</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>43799</c:v>
+                        <c:v>43839</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>43800</c:v>
+                        <c:v>43840</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>43801</c:v>
+                        <c:v>43841</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>43802</c:v>
+                        <c:v>43842</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>43803</c:v>
+                        <c:v>43843</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>43804</c:v>
+                        <c:v>43844</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12225,11 +12284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAE741-4166-4A0E-BA42-5DD919C731FB}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12256,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12288,32 +12347,29 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -14023,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -14061,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -14099,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -14137,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -14175,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -14213,10 +14269,10 @@
         <v>-1</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -14224,7 +14280,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C95" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C97" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -14254,7 +14310,7 @@
         <v>-1</v>
       </c>
       <c r="L66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -14292,7 +14348,7 @@
         <v>-1</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -14330,7 +14386,7 @@
         <v>-1</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -14368,7 +14424,7 @@
         <v>-1</v>
       </c>
       <c r="L69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -14406,7 +14462,7 @@
         <v>-1</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -14444,7 +14500,7 @@
         <v>-1</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -14482,7 +14538,7 @@
         <v>-1</v>
       </c>
       <c r="L72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -14520,10 +14576,10 @@
         <v>-2</v>
       </c>
       <c r="L73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -14596,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -14634,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -14742,13 +14798,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -14786,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -14859,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -14897,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -14970,13 +15026,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -15014,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -15086,10 +15142,10 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -15157,10 +15213,10 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R90">
         <v>12</v>
@@ -15335,198 +15391,247 @@
       <c r="A96" s="2">
         <v>43783</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>159.85</v>
+      </c>
       <c r="D96">
         <f>D95-(A96-A95)*0.1</f>
         <v>160.00000000000003</v>
       </c>
+      <c r="E96">
+        <f>MAX(IF($H96-165&lt;MIN($E$2:$E95),$H96-165,MIN($E$2:$E95)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="G96">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="H96">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="I96">
+        <v>160.5</v>
+      </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>43784</v>
+        <v>43824</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>164.5</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
-        <v>159.90000000000003</v>
+        <v>165</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f>H97-155</f>
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <f>I97-145</f>
+        <v>21</v>
+      </c>
+      <c r="H97">
+        <v>163</v>
+      </c>
+      <c r="I97">
+        <v>166</v>
+      </c>
+      <c r="N97">
+        <v>166</v>
+      </c>
+      <c r="R97">
+        <v>22</v>
+      </c>
+      <c r="S97">
+        <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>43785</v>
+        <v>43825</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>159.80000000000004</v>
+        <v>164.9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>43786</v>
+        <v>43826</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>159.70000000000005</v>
+        <v>164.8</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>43787</v>
+        <v>43827</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>159.60000000000005</v>
+        <v>164.70000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>43788</v>
+        <v>43828</v>
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>159.50000000000006</v>
+        <v>164.60000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>43789</v>
+        <v>43829</v>
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>159.40000000000006</v>
+        <v>164.50000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>43790</v>
+        <v>43830</v>
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>159.30000000000007</v>
+        <v>164.40000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>43791</v>
+        <v>43831</v>
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>159.20000000000007</v>
+        <v>164.30000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>43792</v>
+        <v>43832</v>
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>159.10000000000008</v>
+        <v>164.20000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>43793</v>
+        <v>43833</v>
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>159.00000000000009</v>
+        <v>164.10000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>43794</v>
+        <v>43834</v>
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>158.90000000000009</v>
+        <v>164.00000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>43795</v>
+        <v>43835</v>
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>158.8000000000001</v>
+        <v>163.90000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>43796</v>
+        <v>43836</v>
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>158.7000000000001</v>
+        <v>163.80000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>43797</v>
+        <v>43837</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>158.60000000000011</v>
+        <v>163.70000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>43798</v>
+        <v>43838</v>
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>158.50000000000011</v>
+        <v>163.60000000000008</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>43799</v>
+        <v>43839</v>
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>158.40000000000012</v>
+        <v>163.50000000000009</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>43800</v>
+        <v>43840</v>
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>158.30000000000013</v>
+        <v>163.40000000000009</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>43801</v>
+        <v>43841</v>
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>158.20000000000013</v>
+        <v>163.3000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>43802</v>
+        <v>43842</v>
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>158.10000000000014</v>
+        <v>163.2000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>43803</v>
+        <v>43843</v>
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>158.00000000000014</v>
+        <v>163.10000000000011</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>43804</v>
+        <v>43844</v>
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>157.90000000000015</v>
+        <v>163.00000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -15539,8 +15644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED39C80-6C53-4422-B100-9B74FDDF1906}">
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15557,10 +15662,10 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DC4A7-1C94-429E-BB81-79985C637C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B56594-C5AB-4E8F-A735-9DCF539D2C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1180,6 +1180,9 @@
                 <c:pt idx="95">
                   <c:v>164.5</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>164.10000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2991,6 +2994,9 @@
                       <c:pt idx="95">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3704,6 +3710,9 @@
                       <c:pt idx="95">
                         <c:v>8</c:v>
                       </c:pt>
+                      <c:pt idx="96">
+                        <c:v>7.4000000000000057</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4415,7 +4424,10 @@
                         <c:v>13.800000000000011</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>21</c:v>
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>17.400000000000006</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5132,6 +5144,9 @@
                       <c:pt idx="95">
                         <c:v>163</c:v>
                       </c:pt>
+                      <c:pt idx="96">
+                        <c:v>162.4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5846,6 +5861,9 @@
                       </c:pt>
                       <c:pt idx="95">
                         <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>165.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8171,6 +8189,9 @@
                       </c:pt>
                       <c:pt idx="95">
                         <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>165</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12285,10 +12306,10 @@
   <dimension ref="A1:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14280,7 +14301,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C97" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C98" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15435,8 +15456,8 @@
         <v>8</v>
       </c>
       <c r="G97">
-        <f>I97-145</f>
-        <v>21</v>
+        <f>H97-145</f>
+        <v>18</v>
       </c>
       <c r="H97">
         <v>163</v>
@@ -15458,9 +15479,35 @@
       <c r="A98" s="2">
         <v>43825</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>164.10000000000002</v>
+      </c>
       <c r="D98">
         <f t="shared" si="6"/>
         <v>164.9</v>
+      </c>
+      <c r="E98">
+        <f>MAX(IF($H98-165&lt;MIN($E$97:$E97),$H98-165,MIN($E$97:$E97)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f>MAX(IF($H98-155&lt;MIN($F$97:$F97),$H98-155,MIN($F$97:$F97)),0)</f>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="G98">
+        <f>MAX(IF($H98-145&lt;MIN($G$97:$G97),$H98-145,MIN($G$97:$G97)),0)</f>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="H98">
+        <v>162.4</v>
+      </c>
+      <c r="I98">
+        <f>MAX(I97-0.2,N98)</f>
+        <v>165.8</v>
+      </c>
+      <c r="N98">
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B56594-C5AB-4E8F-A735-9DCF539D2C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C6FAE-9205-46CA-8B68-A6E51955D126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -325,12 +325,54 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Lap 1</t>
+  </si>
+  <si>
+    <t>Lap 2</t>
+  </si>
+  <si>
+    <t>Lap 3</t>
+  </si>
+  <si>
+    <t>Lap 4</t>
+  </si>
+  <si>
+    <t>Lap 5</t>
+  </si>
+  <si>
+    <t>Lap 6</t>
+  </si>
+  <si>
+    <t>Lap 7</t>
+  </si>
+  <si>
+    <t>Lap 8</t>
+  </si>
+  <si>
+    <t>Lap 9</t>
+  </si>
+  <si>
+    <t>Lap 10</t>
+  </si>
+  <si>
+    <t>Jog</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Clap Push Up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +399,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1183,6 +1231,9 @@
                 <c:pt idx="96">
                   <c:v>164.10000000000002</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>164.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2997,6 +3048,9 @@
                       <c:pt idx="96">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3713,6 +3767,9 @@
                       <c:pt idx="96">
                         <c:v>7.4000000000000057</c:v>
                       </c:pt>
+                      <c:pt idx="97">
+                        <c:v>7.4000000000000057</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4427,6 +4484,9 @@
                         <c:v>18</c:v>
                       </c:pt>
                       <c:pt idx="96">
+                        <c:v>17.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
                         <c:v>17.400000000000006</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5147,6 +5207,9 @@
                       <c:pt idx="96">
                         <c:v>162.4</c:v>
                       </c:pt>
+                      <c:pt idx="97">
+                        <c:v>162.4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5864,6 +5927,9 @@
                       </c:pt>
                       <c:pt idx="96">
                         <c:v>165.8</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>166.2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6818,6 +6884,12 @@
                       <c:pt idx="90">
                         <c:v>3</c:v>
                       </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7309,6 +7381,9 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8193,6 +8268,9 @@
                       <c:pt idx="96">
                         <c:v>165</c:v>
                       </c:pt>
+                      <c:pt idx="97">
+                        <c:v>166.2</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -10810,7 +10888,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$U$1</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$V$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11210,7 +11288,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Weight Loss'!$U$2:$U$117</c15:sqref>
+                          <c15:sqref>'Weight Loss'!$V$2:$V$117</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12303,13 +12381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAE741-4166-4A0E-BA42-5DD919C731FB}">
-  <dimension ref="A1:U117"/>
+  <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomRight" activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12327,11 +12405,12 @@
     <col min="16" max="16" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.88671875" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="15.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="14.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.88671875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="32" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12389,11 +12468,44 @@
       <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="W1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43635</v>
       </c>
@@ -12420,7 +12532,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43637</v>
       </c>
@@ -12447,7 +12559,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43639</v>
       </c>
@@ -12474,7 +12586,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43644</v>
       </c>
@@ -12501,7 +12613,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43645</v>
       </c>
@@ -12528,7 +12640,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43648</v>
       </c>
@@ -12555,7 +12667,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43649</v>
       </c>
@@ -12582,7 +12694,7 @@
         <v>169.8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43654</v>
       </c>
@@ -12609,7 +12721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43656</v>
       </c>
@@ -12636,7 +12748,7 @@
         <v>168.8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43657</v>
       </c>
@@ -12663,7 +12775,7 @@
         <v>168.8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43658</v>
       </c>
@@ -12690,7 +12802,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43662</v>
       </c>
@@ -12717,7 +12829,7 @@
         <v>167.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43663</v>
       </c>
@@ -12744,7 +12856,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43666</v>
       </c>
@@ -12771,7 +12883,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43669</v>
       </c>
@@ -14301,7 +14413,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C98" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C99" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15437,7 +15549,7 @@
         <v>160.5</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43824</v>
       </c>
@@ -15475,7 +15587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43825</v>
       </c>
@@ -15506,20 +15618,74 @@
         <f>MAX(I97-0.2,N98)</f>
         <v>165.8</v>
       </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
       <c r="N98">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43826</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>164.3</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
         <v>164.8</v>
       </c>
+      <c r="E99">
+        <f>MAX(IF($H99-165&lt;MIN($E$97:$E98),$H99-165,MIN($E$97:$E98)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f>MAX(IF($H99-155&lt;MIN($F$97:$F98),$H99-155,MIN($F$97:$F98)),0)</f>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="G99">
+        <f>MAX(IF($H99-145&lt;MIN($G$97:$G98),$H99-145,MIN($G$97:$G98)),0)</f>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="H99">
+        <v>162.4</v>
+      </c>
+      <c r="I99">
+        <f>MAX(I98-0.2,N99)</f>
+        <v>166.2</v>
+      </c>
+      <c r="K99">
+        <f>K98+1-IF(ISBLANK(L99),0,1)-IF(ISBLANK(M99),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99">
+        <v>166.2</v>
+      </c>
+      <c r="W99" t="s">
+        <v>56</v>
+      </c>
+      <c r="X99" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43827</v>
       </c>
@@ -15528,7 +15694,7 @@
         <v>164.70000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43828</v>
       </c>
@@ -15537,7 +15703,7 @@
         <v>164.60000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43829</v>
       </c>
@@ -15546,7 +15712,7 @@
         <v>164.50000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43830</v>
       </c>
@@ -15555,7 +15721,7 @@
         <v>164.40000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43831</v>
       </c>
@@ -15564,7 +15730,7 @@
         <v>164.30000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43832</v>
       </c>
@@ -15573,7 +15739,7 @@
         <v>164.20000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43833</v>
       </c>
@@ -15582,7 +15748,7 @@
         <v>164.10000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43834</v>
       </c>
@@ -15591,7 +15757,7 @@
         <v>164.00000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43835</v>
       </c>
@@ -15600,7 +15766,7 @@
         <v>163.90000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43836</v>
       </c>
@@ -15609,7 +15775,7 @@
         <v>163.80000000000007</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43837</v>
       </c>
@@ -15618,7 +15784,7 @@
         <v>163.70000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43838</v>
       </c>
@@ -15627,7 +15793,7 @@
         <v>163.60000000000008</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43839</v>
       </c>
@@ -15682,6 +15848,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C6FAE-9205-46CA-8B68-A6E51955D126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150767A3-2B8D-401D-BECF-411A9BAB3EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1234,6 +1234,9 @@
                 <c:pt idx="97">
                   <c:v>164.3</c:v>
                 </c:pt>
+                <c:pt idx="98">
+                  <c:v>166.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3051,6 +3054,9 @@
                       <c:pt idx="97">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3770,6 +3776,9 @@
                       <c:pt idx="97">
                         <c:v>7.4000000000000057</c:v>
                       </c:pt>
+                      <c:pt idx="98">
+                        <c:v>7.4000000000000057</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4487,6 +4496,9 @@
                         <c:v>17.400000000000006</c:v>
                       </c:pt>
                       <c:pt idx="97">
+                        <c:v>17.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
                         <c:v>17.400000000000006</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5210,6 +5222,9 @@
                       <c:pt idx="97">
                         <c:v>162.4</c:v>
                       </c:pt>
+                      <c:pt idx="98">
+                        <c:v>166.8</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5930,6 +5945,9 @@
                       </c:pt>
                       <c:pt idx="97">
                         <c:v>166.2</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>166.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6889,6 +6907,9 @@
                       </c:pt>
                       <c:pt idx="97">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8270,6 +8291,9 @@
                       </c:pt>
                       <c:pt idx="97">
                         <c:v>166.2</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>166.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12384,10 +12408,10 @@
   <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U93" sqref="U93"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14413,7 +14437,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C99" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C100" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15689,9 +15713,39 @@
       <c r="A100" s="2">
         <v>43827</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>166.8</v>
+      </c>
       <c r="D100">
         <f t="shared" si="6"/>
         <v>164.70000000000002</v>
+      </c>
+      <c r="E100">
+        <f>MAX(IF($H100-165&lt;MIN($E$97:$E99),$H100-165,MIN($E$97:$E99)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>MAX(IF($H100-155&lt;MIN($F$97:$F99),$H100-155,MIN($F$97:$F99)),0)</f>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="G100">
+        <f>MAX(IF($H100-145&lt;MIN($G$97:$G99),$H100-145,MIN($G$97:$G99)),0)</f>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="H100">
+        <v>166.8</v>
+      </c>
+      <c r="I100">
+        <f>MAX(I99-0.2,N100)</f>
+        <v>166.8</v>
+      </c>
+      <c r="K100">
+        <f>K99+1-IF(ISBLANK(L100),0,1)-IF(ISBLANK(M100),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>166.8</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150767A3-2B8D-401D-BECF-411A9BAB3EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD957BD2-EF45-49A6-86F0-C3F2A83339B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
                   <c:v>164.3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>166.8</c:v>
+                  <c:v>165.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5223,7 +5223,7 @@
                         <c:v>162.4</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>166.8</c:v>
+                        <c:v>165</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12408,10 +12408,10 @@
   <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>166.8</v>
+        <v>165.9</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
@@ -15734,7 +15734,7 @@
         <v>17.400000000000006</v>
       </c>
       <c r="H100">
-        <v>166.8</v>
+        <v>165</v>
       </c>
       <c r="I100">
         <f>MAX(I99-0.2,N100)</f>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD957BD2-EF45-49A6-86F0-C3F2A83339B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160EC9A-9C7D-4A4A-8E28-1CCBC700AC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Clap Push Up</t>
+  </si>
+  <si>
+    <t>Mad for Chicken</t>
   </si>
 </sst>
 </file>
@@ -6909,7 +6912,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>1</c:v>
+                        <c:v>-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7405,6 +7408,9 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -7849,6 +7855,9 @@
                       <c:pt idx="88">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -8294,6 +8303,9 @@
                       </c:pt>
                       <c:pt idx="98">
                         <c:v>166.8</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>166.2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12411,7 +12423,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15681,7 +15693,7 @@
         <v>166.2</v>
       </c>
       <c r="K99">
-        <f>K98+1-IF(ISBLANK(L99),0,1)-IF(ISBLANK(M99),0,1)</f>
+        <f>K98+1-IF(ISBLANK(L99),0,1)-M99</f>
         <v>0</v>
       </c>
       <c r="L99" t="s">
@@ -15741,8 +15753,14 @@
         <v>166.8</v>
       </c>
       <c r="K100">
-        <f>K99+1-IF(ISBLANK(L100),0,1)-IF(ISBLANK(M100),0,1)</f>
-        <v>1</v>
+        <f>K99+1-IF(ISBLANK(L100),0,1)-M100</f>
+        <v>-2</v>
+      </c>
+      <c r="L100" t="s">
+        <v>60</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
       </c>
       <c r="N100">
         <v>166.8</v>
@@ -15755,6 +15773,9 @@
       <c r="D101">
         <f t="shared" si="6"/>
         <v>164.60000000000002</v>
+      </c>
+      <c r="N101">
+        <v>166.2</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3160EC9A-9C7D-4A4A-8E28-1CCBC700AC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0950E-F2EA-45B5-9D7D-DBC8803205E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Mad for Chicken</t>
+  </si>
+  <si>
+    <t>Jan Jog</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,13 @@
                   <c:v>164.3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>165.9</c:v>
+                  <c:v>164.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>164.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,6 +3069,12 @@
                       <c:pt idx="98">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3782,6 +3797,12 @@
                       <c:pt idx="98">
                         <c:v>7.4000000000000057</c:v>
                       </c:pt>
+                      <c:pt idx="99">
+                        <c:v>7.4000000000000057</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>6.1999999999999886</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4503,6 +4524,12 @@
                       </c:pt>
                       <c:pt idx="98">
                         <c:v>17.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>17.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>16.199999999999989</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5226,7 +5253,13 @@
                         <c:v>162.4</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>165</c:v>
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>162.4</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>161.19999999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5951,6 +5984,12 @@
                       </c:pt>
                       <c:pt idx="98">
                         <c:v>166.8</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>166.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>166.40000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8306,6 +8345,9 @@
                       </c:pt>
                       <c:pt idx="99">
                         <c:v>166.2</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>165</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12417,13 +12459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAE741-4166-4A0E-BA42-5DD919C731FB}">
-  <dimension ref="A1:AF117"/>
+  <dimension ref="A1:AG117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12444,9 +12486,10 @@
     <col min="20" max="21" width="13.88671875" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="9.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="32" width="6.5546875" customWidth="1"/>
+    <col min="33" max="33" width="9.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12540,8 +12583,11 @@
       <c r="AF1" t="s">
         <v>55</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43635</v>
       </c>
@@ -12568,7 +12614,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43637</v>
       </c>
@@ -12595,7 +12641,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43639</v>
       </c>
@@ -12622,7 +12668,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43644</v>
       </c>
@@ -12649,7 +12695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43645</v>
       </c>
@@ -12676,7 +12722,7 @@
         <v>172.4</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43648</v>
       </c>
@@ -12703,7 +12749,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43649</v>
       </c>
@@ -12730,7 +12776,7 @@
         <v>169.8</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43654</v>
       </c>
@@ -12757,7 +12803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43656</v>
       </c>
@@ -12784,7 +12830,7 @@
         <v>168.8</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43657</v>
       </c>
@@ -12811,7 +12857,7 @@
         <v>168.8</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43658</v>
       </c>
@@ -12838,7 +12884,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43662</v>
       </c>
@@ -12865,7 +12911,7 @@
         <v>167.6</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43663</v>
       </c>
@@ -12892,7 +12938,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43666</v>
       </c>
@@ -12919,7 +12965,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43669</v>
       </c>
@@ -14449,7 +14495,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C100" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C102" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15727,7 +15773,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>165.9</v>
+        <v>164.9</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
@@ -15746,7 +15792,7 @@
         <v>17.400000000000006</v>
       </c>
       <c r="H100">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I100">
         <f>MAX(I99-0.2,N100)</f>
@@ -15770,9 +15816,32 @@
       <c r="A101" s="2">
         <v>43828</v>
       </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>164.5</v>
+      </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D101" si="7">D100-(A101-A100)*0.1</f>
         <v>164.60000000000002</v>
+      </c>
+      <c r="E101">
+        <f>MAX(IF($H101-165&lt;MIN($E$97:$E100),$H101-165,MIN($E$97:$E100)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f>MAX(IF($H101-155&lt;MIN($F$97:$F100),$H101-155,MIN($F$97:$F100)),0)</f>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="G101">
+        <f>MAX(IF($H101-145&lt;MIN($G$97:$G100),$H101-145,MIN($G$97:$G100)),0)</f>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="H101">
+        <v>162.4</v>
+      </c>
+      <c r="I101">
+        <f>MAX(I100-0.2,N101)</f>
+        <v>166.60000000000002</v>
       </c>
       <c r="N101">
         <v>166.2</v>
@@ -15782,9 +15851,35 @@
       <c r="A102" s="2">
         <v>43829</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>163.80000000000001</v>
+      </c>
       <c r="D102">
         <f t="shared" si="6"/>
         <v>164.50000000000003</v>
+      </c>
+      <c r="E102">
+        <f>MAX(IF($H102-165&lt;MIN($E$97:$E101),$H102-165,MIN($E$97:$E101)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f>MAX(IF($H102-155&lt;MIN($F$97:$F101),$H102-155,MIN($F$97:$F101)),0)</f>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="G102">
+        <f>MAX(IF($H102-145&lt;MIN($G$97:$G101),$H102-145,MIN($G$97:$G101)),0)</f>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="H102">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="I102">
+        <f>MAX(I101-0.2,N102)</f>
+        <v>166.40000000000003</v>
+      </c>
+      <c r="N102">
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0950E-F2EA-45B5-9D7D-DBC8803205E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F5C24-D713-4897-9D79-6924DD5EAC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1249,6 +1249,9 @@
                 <c:pt idx="100">
                   <c:v>163.80000000000001</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>164.70000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3075,6 +3078,9 @@
                       <c:pt idx="100">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="101">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3803,6 +3809,9 @@
                       <c:pt idx="100">
                         <c:v>6.1999999999999886</c:v>
                       </c:pt>
+                      <c:pt idx="101">
+                        <c:v>6.1999999999999886</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4529,6 +4538,9 @@
                         <c:v>17.400000000000006</c:v>
                       </c:pt>
                       <c:pt idx="100">
+                        <c:v>16.199999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
                         <c:v>16.199999999999989</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5261,6 +5273,9 @@
                       <c:pt idx="100">
                         <c:v>161.19999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="101">
+                        <c:v>163.19999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5990,6 +6005,9 @@
                       </c:pt>
                       <c:pt idx="100">
                         <c:v>166.40000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>166.20000000000005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8349,6 +8367,9 @@
                       <c:pt idx="100">
                         <c:v>165</c:v>
                       </c:pt>
+                      <c:pt idx="101">
+                        <c:v>165</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -9639,11 +9660,17 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="116"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
                       <c:pt idx="85">
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="90">
                         <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>12</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10073,6 +10100,9 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="116"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
                       <c:pt idx="88">
                         <c:v>12</c:v>
                       </c:pt>
@@ -10507,6 +10537,9 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="116"/>
+                      <c:pt idx="0">
+                        <c:v>12</c:v>
+                      </c:pt>
                       <c:pt idx="88">
                         <c:v>20</c:v>
                       </c:pt>
@@ -12462,10 +12495,10 @@
   <dimension ref="A1:AG117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12613,6 +12646,15 @@
       <c r="I2">
         <v>177</v>
       </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -14495,7 +14537,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C102" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C103" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15881,14 +15923,43 @@
       <c r="N102">
         <v>165</v>
       </c>
+      <c r="Q102">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43830</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>164.70000000000002</v>
+      </c>
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D103" si="8">D102-(A103-A102)*0.1</f>
         <v>164.40000000000003</v>
+      </c>
+      <c r="E103">
+        <f>MAX(IF($H103-165&lt;MIN($E$97:$E102),$H103-165,MIN($E$97:$E102)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f>MAX(IF($H103-155&lt;MIN($F$97:$F102),$H103-155,MIN($F$97:$F102)),0)</f>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="G103">
+        <f>MAX(IF($H103-145&lt;MIN($G$97:$G102),$H103-145,MIN($G$97:$G102)),0)</f>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="H103">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I103">
+        <f>MAX(I102-0.2,N103)</f>
+        <v>166.20000000000005</v>
+      </c>
+      <c r="N103">
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.3">

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F5C24-D713-4897-9D79-6924DD5EAC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9610AE-5F18-40B3-9B33-F4A1E566CC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1252,6 +1252,9 @@
                 <c:pt idx="101">
                   <c:v>164.70000000000002</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>166.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1853,65 +1856,47 @@
                 <c:pt idx="95">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="102">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>164.9</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="104">
                   <c:v>164.8</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="105">
                   <c:v>164.70000000000002</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="106">
                   <c:v>164.60000000000002</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="107">
                   <c:v>164.50000000000003</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="108">
                   <c:v>164.40000000000003</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="109">
                   <c:v>164.30000000000004</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="110">
                   <c:v>164.20000000000005</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="111">
                   <c:v>164.10000000000005</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="112">
                   <c:v>164.00000000000006</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="113">
                   <c:v>163.90000000000006</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="114">
                   <c:v>163.80000000000007</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="115">
                   <c:v>163.70000000000007</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>163.60000000000008</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>163.50000000000009</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>163.40000000000009</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>163.3000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>163.2000000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>163.10000000000011</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>163.00000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,6 +3066,9 @@
                       <c:pt idx="101">
                         <c:v>0</c:v>
                       </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3812,6 +3800,9 @@
                       <c:pt idx="101">
                         <c:v>6.1999999999999886</c:v>
                       </c:pt>
+                      <c:pt idx="102">
+                        <c:v>6.1999999999999886</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4541,6 +4532,9 @@
                         <c:v>16.199999999999989</c:v>
                       </c:pt>
                       <c:pt idx="101">
+                        <c:v>16.199999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
                         <c:v>16.199999999999989</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5276,6 +5270,9 @@
                       <c:pt idx="101">
                         <c:v>163.19999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="102">
+                        <c:v>163.6</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6008,6 +6005,9 @@
                       </c:pt>
                       <c:pt idx="101">
                         <c:v>166.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>169.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8369,6 +8369,9 @@
                       </c:pt>
                       <c:pt idx="101">
                         <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>169.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12492,13 +12495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAE741-4166-4A0E-BA42-5DD919C731FB}">
-  <dimension ref="A1:AG117"/>
+  <dimension ref="A1:AG119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
+      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14537,7 +14540,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C103" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C104" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15719,10 +15722,6 @@
         <f t="shared" si="3"/>
         <v>164.10000000000002</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="6"/>
-        <v>164.9</v>
-      </c>
       <c r="E98">
         <f>MAX(IF($H98-165&lt;MIN($E$97:$E97),$H98-165,MIN($E$97:$E97)),0)</f>
         <v>0</v>
@@ -15757,10 +15756,6 @@
         <f t="shared" si="3"/>
         <v>164.3</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="6"/>
-        <v>164.8</v>
-      </c>
       <c r="E99">
         <f>MAX(IF($H99-165&lt;MIN($E$97:$E98),$H99-165,MIN($E$97:$E98)),0)</f>
         <v>0</v>
@@ -15817,10 +15812,6 @@
         <f t="shared" si="3"/>
         <v>164.9</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="6"/>
-        <v>164.70000000000002</v>
-      </c>
       <c r="E100">
         <f>MAX(IF($H100-165&lt;MIN($E$97:$E99),$H100-165,MIN($E$97:$E99)),0)</f>
         <v>0</v>
@@ -15862,10 +15853,6 @@
         <f t="shared" si="3"/>
         <v>164.5</v>
       </c>
-      <c r="D101">
-        <f t="shared" ref="D101" si="7">D100-(A101-A100)*0.1</f>
-        <v>164.60000000000002</v>
-      </c>
       <c r="E101">
         <f>MAX(IF($H101-165&lt;MIN($E$97:$E100),$H101-165,MIN($E$97:$E100)),0)</f>
         <v>0</v>
@@ -15897,10 +15884,6 @@
         <f t="shared" si="3"/>
         <v>163.80000000000001</v>
       </c>
-      <c r="D102">
-        <f t="shared" si="6"/>
-        <v>164.50000000000003</v>
-      </c>
       <c r="E102">
         <f>MAX(IF($H102-165&lt;MIN($E$97:$E101),$H102-165,MIN($E$97:$E101)),0)</f>
         <v>0</v>
@@ -15935,10 +15918,6 @@
         <f t="shared" si="3"/>
         <v>164.70000000000002</v>
       </c>
-      <c r="D103">
-        <f t="shared" ref="D103" si="8">D102-(A103-A102)*0.1</f>
-        <v>164.40000000000003</v>
-      </c>
       <c r="E103">
         <f>MAX(IF($H103-165&lt;MIN($E$97:$E102),$H103-165,MIN($E$97:$E102)),0)</f>
         <v>0</v>
@@ -15966,9 +15945,34 @@
       <c r="A104" s="2">
         <v>43831</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>166.7</v>
+      </c>
       <c r="D104">
-        <f t="shared" si="6"/>
-        <v>164.30000000000004</v>
+        <v>165</v>
+      </c>
+      <c r="E104">
+        <f>MAX(IF($H104-165&lt;MIN($E$97:$E103),$H104-165,MIN($E$97:$E103)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f>MAX(IF($H104-155&lt;MIN($F$97:$F103),$H104-155,MIN($F$97:$F103)),0)</f>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="G104">
+        <f>MAX(IF($H104-145&lt;MIN($G$97:$G103),$H104-145,MIN($G$97:$G103)),0)</f>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="H104">
+        <v>163.6</v>
+      </c>
+      <c r="I104">
+        <f>MAX(I103-0.2,N104)</f>
+        <v>169.8</v>
+      </c>
+      <c r="N104">
+        <v>169.8</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
@@ -15977,7 +15981,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>164.20000000000005</v>
+        <v>164.9</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
@@ -15986,7 +15990,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>164.10000000000005</v>
+        <v>164.8</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
@@ -15995,7 +15999,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>164.00000000000006</v>
+        <v>164.70000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
@@ -16004,7 +16008,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>163.90000000000006</v>
+        <v>164.60000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
@@ -16013,7 +16017,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>163.80000000000007</v>
+        <v>164.50000000000003</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
@@ -16022,7 +16026,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>163.70000000000007</v>
+        <v>164.40000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
@@ -16031,7 +16035,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>163.60000000000008</v>
+        <v>164.30000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
@@ -16040,7 +16044,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>163.50000000000009</v>
+        <v>164.20000000000005</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -16049,7 +16053,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>163.40000000000009</v>
+        <v>164.10000000000005</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -16058,7 +16062,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>163.3000000000001</v>
+        <v>164.00000000000006</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -16067,7 +16071,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>163.2000000000001</v>
+        <v>163.90000000000006</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -16076,7 +16080,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>163.10000000000011</v>
+        <v>163.80000000000007</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -16085,7 +16089,25 @@
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>163.00000000000011</v>
+        <v>163.70000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>43845</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ref="D118:D119" si="7">D117-(A118-A117)*0.1</f>
+        <v>163.60000000000008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>43846</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="7"/>
+        <v>163.50000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9610AE-5F18-40B3-9B33-F4A1E566CC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9DEAD7-5196-4F55-BBA2-BB37CFDEFA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1255,6 +1255,9 @@
                 <c:pt idx="102">
                   <c:v>166.7</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>166.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1857,46 +1860,46 @@
                   <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>165</c:v>
+                  <c:v>166.7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>164.9</c:v>
+                  <c:v>166.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>164.8</c:v>
+                  <c:v>166.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>164.70000000000002</c:v>
+                  <c:v>165.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>164.60000000000002</c:v>
+                  <c:v>165.49999999999994</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>164.50000000000003</c:v>
+                  <c:v>165.19999999999993</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>164.40000000000003</c:v>
+                  <c:v>164.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>164.30000000000004</c:v>
+                  <c:v>164.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>164.20000000000005</c:v>
+                  <c:v>164.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>164.10000000000005</c:v>
+                  <c:v>164.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>164.00000000000006</c:v>
+                  <c:v>164.2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>163.90000000000006</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>163.80000000000007</c:v>
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>163.70000000000007</c:v>
+                  <c:v>163.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,7 +3070,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>0</c:v>
+                        <c:v>1.6999999999999886</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1.3000000000000114</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3801,7 +3807,10 @@
                         <c:v>6.1999999999999886</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>6.1999999999999886</c:v>
+                        <c:v>11.699999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>11.300000000000011</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4535,7 +4544,10 @@
                         <c:v>16.199999999999989</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>16.199999999999989</c:v>
+                        <c:v>21.699999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>21.300000000000011</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5273,6 +5285,9 @@
                       <c:pt idx="102">
                         <c:v>163.6</c:v>
                       </c:pt>
+                      <c:pt idx="103">
+                        <c:v>163</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6008,6 +6023,9 @@
                       </c:pt>
                       <c:pt idx="102">
                         <c:v>169.8</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>169.60000000000002</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8372,6 +8390,9 @@
                       </c:pt>
                       <c:pt idx="102">
                         <c:v>169.8</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>168</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12501,7 +12522,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14540,7 +14561,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C104" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C105" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15950,19 +15971,20 @@
         <v>166.7</v>
       </c>
       <c r="D104">
-        <v>165</v>
+        <f>C104</f>
+        <v>166.7</v>
       </c>
       <c r="E104">
-        <f>MAX(IF($H104-165&lt;MIN($E$97:$E103),$H104-165,MIN($E$97:$E103)),0)</f>
-        <v>0</v>
+        <f>C104-165</f>
+        <v>1.6999999999999886</v>
       </c>
       <c r="F104">
-        <f>MAX(IF($H104-155&lt;MIN($F$97:$F103),$H104-155,MIN($F$97:$F103)),0)</f>
-        <v>6.1999999999999886</v>
+        <f>C104-155</f>
+        <v>11.699999999999989</v>
       </c>
       <c r="G104">
-        <f>MAX(IF($H104-145&lt;MIN($G$97:$G103),$H104-145,MIN($G$97:$G103)),0)</f>
-        <v>16.199999999999989</v>
+        <f>C104-145</f>
+        <v>21.699999999999989</v>
       </c>
       <c r="H104">
         <v>163.6</v>
@@ -15979,9 +16001,35 @@
       <c r="A105" s="2">
         <v>43832</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>166.3</v>
+      </c>
       <c r="D105">
-        <f t="shared" si="6"/>
-        <v>164.9</v>
+        <f>D104-(A105-A104)*0.3</f>
+        <v>166.39999999999998</v>
+      </c>
+      <c r="E105">
+        <f>C105-165</f>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="F105">
+        <f>C105-155</f>
+        <v>11.300000000000011</v>
+      </c>
+      <c r="G105">
+        <f>C105-145</f>
+        <v>21.300000000000011</v>
+      </c>
+      <c r="H105">
+        <v>163</v>
+      </c>
+      <c r="I105">
+        <f>MAX(I104-ROUNDUP(I104-N105,0)*0.1,N105)</f>
+        <v>169.60000000000002</v>
+      </c>
+      <c r="N105">
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
@@ -15989,8 +16037,8 @@
         <v>43833</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
-        <v>164.8</v>
+        <f t="shared" ref="D106:D109" si="7">D105-(A106-A105)*0.3</f>
+        <v>166.09999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
@@ -15998,8 +16046,8 @@
         <v>43834</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
-        <v>164.70000000000002</v>
+        <f t="shared" si="7"/>
+        <v>165.79999999999995</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
@@ -16007,8 +16055,8 @@
         <v>43835</v>
       </c>
       <c r="D108">
-        <f t="shared" si="6"/>
-        <v>164.60000000000002</v>
+        <f t="shared" si="7"/>
+        <v>165.49999999999994</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
@@ -16016,8 +16064,8 @@
         <v>43836</v>
       </c>
       <c r="D109">
-        <f t="shared" si="6"/>
-        <v>164.50000000000003</v>
+        <f t="shared" si="7"/>
+        <v>165.19999999999993</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
@@ -16025,8 +16073,8 @@
         <v>43837</v>
       </c>
       <c r="D110">
-        <f t="shared" si="6"/>
-        <v>164.40000000000003</v>
+        <f>D109-(A110-A109)*0.2</f>
+        <v>164.99999999999994</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
@@ -16034,8 +16082,8 @@
         <v>43838</v>
       </c>
       <c r="D111">
-        <f t="shared" si="6"/>
-        <v>164.30000000000004</v>
+        <f t="shared" ref="D111:D119" si="8">D110-(A111-A110)*0.2</f>
+        <v>164.79999999999995</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
@@ -16043,8 +16091,8 @@
         <v>43839</v>
       </c>
       <c r="D112">
-        <f t="shared" si="6"/>
-        <v>164.20000000000005</v>
+        <f t="shared" si="8"/>
+        <v>164.59999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -16052,8 +16100,8 @@
         <v>43840</v>
       </c>
       <c r="D113">
-        <f t="shared" si="6"/>
-        <v>164.10000000000005</v>
+        <f t="shared" si="8"/>
+        <v>164.39999999999998</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -16061,8 +16109,8 @@
         <v>43841</v>
       </c>
       <c r="D114">
-        <f t="shared" si="6"/>
-        <v>164.00000000000006</v>
+        <f t="shared" si="8"/>
+        <v>164.2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -16070,8 +16118,8 @@
         <v>43842</v>
       </c>
       <c r="D115">
-        <f t="shared" si="6"/>
-        <v>163.90000000000006</v>
+        <f t="shared" si="8"/>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -16079,8 +16127,8 @@
         <v>43843</v>
       </c>
       <c r="D116">
-        <f t="shared" si="6"/>
-        <v>163.80000000000007</v>
+        <f t="shared" si="8"/>
+        <v>163.80000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -16088,8 +16136,8 @@
         <v>43844</v>
       </c>
       <c r="D117">
-        <f t="shared" si="6"/>
-        <v>163.70000000000007</v>
+        <f t="shared" si="8"/>
+        <v>163.60000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -16097,8 +16145,8 @@
         <v>43845</v>
       </c>
       <c r="D118">
-        <f t="shared" ref="D118:D119" si="7">D117-(A118-A117)*0.1</f>
-        <v>163.60000000000008</v>
+        <f t="shared" si="8"/>
+        <v>163.40000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -16106,8 +16154,8 @@
         <v>43846</v>
       </c>
       <c r="D119">
-        <f t="shared" si="7"/>
-        <v>163.50000000000009</v>
+        <f t="shared" si="8"/>
+        <v>163.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9DEAD7-5196-4F55-BBA2-BB37CFDEFA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96934F8B-A31B-45AF-B518-21C233EE5DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1872,34 +1872,34 @@
                   <c:v>165.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>165.49999999999994</c:v>
+                  <c:v>165.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>165.19999999999993</c:v>
+                  <c:v>165.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>164.99999999999994</c:v>
+                  <c:v>165.2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>164.79999999999995</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>164.59999999999997</c:v>
+                  <c:v>164.8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>164.39999999999998</c:v>
+                  <c:v>164.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>164.2</c:v>
+                  <c:v>164.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>164</c:v>
+                  <c:v>164.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>163.80000000000001</c:v>
+                  <c:v>164.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>163.60000000000002</c:v>
+                  <c:v>163.80000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,7 +5286,7 @@
                         <c:v>163.6</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>163</c:v>
+                        <c:v>163.19999999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6025,7 +6025,7 @@
                         <c:v>169.8</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>169.60000000000002</c:v>
+                        <c:v>169.4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8392,7 +8392,7 @@
                         <c:v>169.8</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>168</c:v>
+                        <c:v>166</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12519,10 +12519,10 @@
   <dimension ref="A1:AG119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M108" sqref="M108"/>
+      <selection pane="bottomRight" activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -16010,26 +16010,26 @@
         <v>166.39999999999998</v>
       </c>
       <c r="E105">
-        <f>C105-165</f>
+        <f>MAX(IF($C105-165&lt;MIN($E$104:$E104),$C105-165,MIN($E$104:$E104)),0)</f>
         <v>1.3000000000000114</v>
       </c>
       <c r="F105">
-        <f>C105-155</f>
+        <f>MAX(IF($C105-155&lt;MIN($F$104:$F104),$C105-155,MIN($F$103:$F104)),0)</f>
         <v>11.300000000000011</v>
       </c>
       <c r="G105">
-        <f>C105-145</f>
+        <f>MAX(IF($C105-145&lt;MIN($G$104:$G104),$C105-145,MIN($G$104:$G104)),0)</f>
         <v>21.300000000000011</v>
       </c>
       <c r="H105">
-        <v>163</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="I105">
         <f>MAX(I104-ROUNDUP(I104-N105,0)*0.1,N105)</f>
-        <v>169.60000000000002</v>
+        <v>169.4</v>
       </c>
       <c r="N105">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
@@ -16055,8 +16055,8 @@
         <v>43835</v>
       </c>
       <c r="D108">
-        <f t="shared" si="7"/>
-        <v>165.49999999999994</v>
+        <f>D107-(A108-A107)*0.2</f>
+        <v>165.59999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
@@ -16064,8 +16064,8 @@
         <v>43836</v>
       </c>
       <c r="D109">
-        <f t="shared" si="7"/>
-        <v>165.19999999999993</v>
+        <f t="shared" ref="D109:D119" si="8">D108-(A109-A108)*0.2</f>
+        <v>165.39999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
@@ -16073,8 +16073,8 @@
         <v>43837</v>
       </c>
       <c r="D110">
-        <f>D109-(A110-A109)*0.2</f>
-        <v>164.99999999999994</v>
+        <f t="shared" si="8"/>
+        <v>165.2</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
@@ -16082,8 +16082,8 @@
         <v>43838</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111:D119" si="8">D110-(A111-A110)*0.2</f>
-        <v>164.79999999999995</v>
+        <f t="shared" si="8"/>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
@@ -16092,7 +16092,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="8"/>
-        <v>164.59999999999997</v>
+        <v>164.8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="8"/>
-        <v>164.39999999999998</v>
+        <v>164.60000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="8"/>
-        <v>164.2</v>
+        <v>164.40000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="8"/>
-        <v>164</v>
+        <v>164.20000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="8"/>
-        <v>163.80000000000001</v>
+        <v>164.00000000000006</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="8"/>
-        <v>163.60000000000002</v>
+        <v>163.80000000000007</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="8"/>
-        <v>163.40000000000003</v>
+        <v>163.60000000000008</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="8"/>
-        <v>163.20000000000005</v>
+        <v>163.40000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96934F8B-A31B-45AF-B518-21C233EE5DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16090799-149E-471B-AD90-A1AE415C98E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
+    <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15990" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Loss" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1258,6 +1259,12 @@
                 <c:pt idx="103">
                   <c:v>166.3</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>166.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>166.10000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3075,6 +3082,12 @@
                       <c:pt idx="103">
                         <c:v>1.3000000000000114</c:v>
                       </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1.0999999999999943</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>1.0999999999999943</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3812,6 +3825,12 @@
                       <c:pt idx="103">
                         <c:v>11.300000000000011</c:v>
                       </c:pt>
+                      <c:pt idx="104">
+                        <c:v>11.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>6.1999999999999886</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4548,6 +4567,12 @@
                       </c:pt>
                       <c:pt idx="103">
                         <c:v>21.300000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>21.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>21.099999999999994</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5288,6 +5313,12 @@
                       <c:pt idx="103">
                         <c:v>163.19999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="104">
+                        <c:v>163.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>163.4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6026,6 +6057,12 @@
                       </c:pt>
                       <c:pt idx="103">
                         <c:v>169.4</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>168.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8393,6 +8430,12 @@
                       </c:pt>
                       <c:pt idx="103">
                         <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>167</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12522,7 +12565,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N105" sqref="N105"/>
+      <selection pane="bottomRight" activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14561,7 +14604,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C105" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C107" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -16036,18 +16079,70 @@
       <c r="A106" s="2">
         <v>43833</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>166.1</v>
+      </c>
       <c r="D106">
         <f t="shared" ref="D106:D109" si="7">D105-(A106-A105)*0.3</f>
         <v>166.09999999999997</v>
+      </c>
+      <c r="E106">
+        <f>MAX(IF($C106-165&lt;MIN($E$104:$E105),$C106-165,MIN($E$104:$E105)),0)</f>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="F106">
+        <f>MAX(IF($C106-155&lt;MIN($F$104:$F105),$C106-155,MIN($F$103:$F105)),0)</f>
+        <v>11.099999999999994</v>
+      </c>
+      <c r="G106">
+        <f>MAX(IF($C106-145&lt;MIN($G$104:$G105),$C106-145,MIN($G$104:$G105)),0)</f>
+        <v>21.099999999999994</v>
+      </c>
+      <c r="H106">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I106">
+        <f>MAX(I105-ROUNDUP(I105-N106,0)*0.1,N106)</f>
+        <v>169</v>
+      </c>
+      <c r="N106">
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43834</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>166.10000000000002</v>
+      </c>
       <c r="D107">
         <f t="shared" si="7"/>
         <v>165.79999999999995</v>
+      </c>
+      <c r="E107">
+        <f>MAX(IF($C107-165&lt;MIN($E$104:$E106),$C107-165,MIN($E$104:$E106)),0)</f>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="F107">
+        <f>MAX(IF($C107-155&lt;MIN($F$104:$F106),$C107-155,MIN($F$103:$F106)),0)</f>
+        <v>6.1999999999999886</v>
+      </c>
+      <c r="G107">
+        <f>MAX(IF($C107-145&lt;MIN($G$104:$G106),$C107-145,MIN($G$104:$G106)),0)</f>
+        <v>21.099999999999994</v>
+      </c>
+      <c r="H107">
+        <v>163.4</v>
+      </c>
+      <c r="I107">
+        <f>MAX(I106-ROUNDUP(I106-N107,0)*0.1,N107)</f>
+        <v>168.8</v>
+      </c>
+      <c r="N107">
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
@@ -16166,6 +16261,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E71D1A-70D0-4B7B-9CBE-FF7C7E9C4DE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED39C80-6C53-4422-B100-9B74FDDF1906}">
   <dimension ref="B2:E2"/>
   <sheetViews>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16090799-149E-471B-AD90-A1AE415C98E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD17C1-92AB-4897-A59B-B8DC45FB42A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15990" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Loss" sheetId="1" r:id="rId1"/>
@@ -1263,7 +1263,16 @@
                   <c:v>166.1</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>166.10000000000002</c:v>
+                  <c:v>166.05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>165.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>165.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>165.14999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,34 +1888,34 @@
                   <c:v>165.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>165.59999999999997</c:v>
+                  <c:v>165.49999999999994</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>165.39999999999998</c:v>
+                  <c:v>165.19999999999993</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>165.2</c:v>
+                  <c:v>164.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>165</c:v>
+                  <c:v>164.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>164.8</c:v>
+                  <c:v>164.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>164.60000000000002</c:v>
+                  <c:v>164.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>164.40000000000003</c:v>
+                  <c:v>164.2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>164.20000000000005</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>164.00000000000006</c:v>
+                  <c:v>163.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>163.80000000000007</c:v>
+                  <c:v>163.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,7 +3095,16 @@
                         <c:v>1.0999999999999943</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>1.0999999999999943</c:v>
+                        <c:v>1.0500000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0.80000000000001137</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0.29999999999998295</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0.14999999999997726</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3829,7 +3847,16 @@
                         <c:v>11.099999999999994</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>6.1999999999999886</c:v>
+                        <c:v>11.050000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>10.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>10.299999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>10.149999999999977</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4572,7 +4599,16 @@
                         <c:v>21.099999999999994</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>21.099999999999994</c:v>
+                        <c:v>21.050000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>20.800000000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>20.299999999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>20.149999999999977</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5319,6 +5355,15 @@
                       <c:pt idx="105">
                         <c:v>163.4</c:v>
                       </c:pt>
+                      <c:pt idx="106">
+                        <c:v>163.30000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>162.6</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>162.6</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6062,7 +6107,16 @@
                         <c:v>169</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>168.8</c:v>
+                        <c:v>168.7</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>168.29999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>167.99999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>167.69999999999996</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8435,7 +8489,16 @@
                         <c:v>166</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>167</c:v>
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>165.8</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>165.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12565,7 +12628,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N107" sqref="N107"/>
+      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14604,7 +14667,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C107" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C110" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -15662,7 +15725,7 @@
         <v>159.5</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:D117" si="6">D93-(A94-A93)*0.1</f>
+        <f t="shared" ref="D94:D95" si="6">D93-(A94-A93)*0.1</f>
         <v>160.30000000000001</v>
       </c>
       <c r="E94">
@@ -15802,7 +15865,7 @@
         <v>162.4</v>
       </c>
       <c r="I98">
-        <f>MAX(I97-0.2,N98)</f>
+        <f t="shared" ref="I98:I104" si="7">MAX(I97-0.2,N98)</f>
         <v>165.8</v>
       </c>
       <c r="K98">
@@ -15836,7 +15899,7 @@
         <v>162.4</v>
       </c>
       <c r="I99">
-        <f>MAX(I98-0.2,N99)</f>
+        <f t="shared" si="7"/>
         <v>166.2</v>
       </c>
       <c r="K99">
@@ -15892,7 +15955,7 @@
         <v>163</v>
       </c>
       <c r="I100">
-        <f>MAX(I99-0.2,N100)</f>
+        <f t="shared" si="7"/>
         <v>166.8</v>
       </c>
       <c r="K100">
@@ -15933,7 +15996,7 @@
         <v>162.4</v>
       </c>
       <c r="I101">
-        <f>MAX(I100-0.2,N101)</f>
+        <f t="shared" si="7"/>
         <v>166.60000000000002</v>
       </c>
       <c r="N101">
@@ -15964,7 +16027,7 @@
         <v>161.19999999999999</v>
       </c>
       <c r="I102">
-        <f>MAX(I101-0.2,N102)</f>
+        <f t="shared" si="7"/>
         <v>166.40000000000003</v>
       </c>
       <c r="N102">
@@ -15998,7 +16061,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="I103">
-        <f>MAX(I102-0.2,N103)</f>
+        <f t="shared" si="7"/>
         <v>166.20000000000005</v>
       </c>
       <c r="N103">
@@ -16033,7 +16096,7 @@
         <v>163.6</v>
       </c>
       <c r="I104">
-        <f>MAX(I103-0.2,N104)</f>
+        <f t="shared" si="7"/>
         <v>169.8</v>
       </c>
       <c r="N104">
@@ -16057,7 +16120,7 @@
         <v>1.3000000000000114</v>
       </c>
       <c r="F105">
-        <f>MAX(IF($C105-155&lt;MIN($F$104:$F104),$C105-155,MIN($F$103:$F104)),0)</f>
+        <f>MAX(IF($C105-155&lt;MIN($F$104:$F104),$C105-155,MIN($F$104:$F104)),0)</f>
         <v>11.300000000000011</v>
       </c>
       <c r="G105">
@@ -16084,7 +16147,7 @@
         <v>166.1</v>
       </c>
       <c r="D106">
-        <f t="shared" ref="D106:D109" si="7">D105-(A106-A105)*0.3</f>
+        <f t="shared" ref="D106:D107" si="8">D105-(A106-A105)*0.3</f>
         <v>166.09999999999997</v>
       </c>
       <c r="E106">
@@ -16092,7 +16155,7 @@
         <v>1.0999999999999943</v>
       </c>
       <c r="F106">
-        <f>MAX(IF($C106-155&lt;MIN($F$104:$F105),$C106-155,MIN($F$103:$F105)),0)</f>
+        <f>MAX(IF($C106-155&lt;MIN($F$104:$F105),$C106-155,MIN($F$104:$F105)),0)</f>
         <v>11.099999999999994</v>
       </c>
       <c r="G106">
@@ -16116,60 +16179,139 @@
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>166.10000000000002</v>
+        <v>166.05</v>
       </c>
       <c r="D107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>165.79999999999995</v>
       </c>
       <c r="E107">
         <f>MAX(IF($C107-165&lt;MIN($E$104:$E106),$C107-165,MIN($E$104:$E106)),0)</f>
-        <v>1.0999999999999943</v>
+        <v>1.0500000000000114</v>
       </c>
       <c r="F107">
-        <f>MAX(IF($C107-155&lt;MIN($F$104:$F106),$C107-155,MIN($F$103:$F106)),0)</f>
-        <v>6.1999999999999886</v>
+        <f>MAX(IF($C107-155&lt;MIN($F$104:$F106),$C107-155,MIN($F$104:$F106)),0)</f>
+        <v>11.050000000000011</v>
       </c>
       <c r="G107">
         <f>MAX(IF($C107-145&lt;MIN($G$104:$G106),$C107-145,MIN($G$104:$G106)),0)</f>
-        <v>21.099999999999994</v>
+        <v>21.050000000000011</v>
       </c>
       <c r="H107">
         <v>163.4</v>
       </c>
       <c r="I107">
         <f>MAX(I106-ROUNDUP(I106-N107,0)*0.1,N107)</f>
-        <v>168.8</v>
+        <v>168.7</v>
       </c>
       <c r="N107">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43835</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>165.8</v>
+      </c>
       <c r="D108">
-        <f>D107-(A108-A107)*0.2</f>
-        <v>165.59999999999997</v>
+        <f t="shared" ref="D108" si="9">D107-(A108-A107)*0.3</f>
+        <v>165.49999999999994</v>
+      </c>
+      <c r="E108">
+        <f>MAX(IF($C108-165&lt;MIN($E$104:$E107),$C108-165,MIN($E$104:$E107)),0)</f>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="F108">
+        <f>MAX(IF($C108-155&lt;MIN($F$104:$F107),$C108-155,MIN($F$104:$F107)),0)</f>
+        <v>10.800000000000011</v>
+      </c>
+      <c r="G108">
+        <f>MAX(IF($C108-145&lt;MIN($G$104:$G107),$C108-145,MIN($G$104:$G107)),0)</f>
+        <v>20.800000000000011</v>
+      </c>
+      <c r="H108">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="I108">
+        <f>MAX(I107-ROUNDUP(I107-N108,0)*0.1,N108)</f>
+        <v>168.29999999999998</v>
+      </c>
+      <c r="N108">
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43836</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>165.29999999999998</v>
+      </c>
       <c r="D109">
-        <f t="shared" ref="D109:D119" si="8">D108-(A109-A108)*0.2</f>
-        <v>165.39999999999998</v>
+        <f t="shared" ref="D109" si="10">D108-(A109-A108)*0.3</f>
+        <v>165.19999999999993</v>
+      </c>
+      <c r="E109">
+        <f>MAX(IF($C109-165&lt;MIN($E$104:$E108),$C109-165,MIN($E$104:$E108)),0)</f>
+        <v>0.29999999999998295</v>
+      </c>
+      <c r="F109">
+        <f>MAX(IF($C109-155&lt;MIN($F$104:$F108),$C109-155,MIN($F$104:$F108)),0)</f>
+        <v>10.299999999999983</v>
+      </c>
+      <c r="G109">
+        <f>MAX(IF($C109-145&lt;MIN($G$104:$G108),$C109-145,MIN($G$104:$G108)),0)</f>
+        <v>20.299999999999983</v>
+      </c>
+      <c r="H109">
+        <v>162.6</v>
+      </c>
+      <c r="I109">
+        <f>MAX(I108-ROUNDUP(I108-N109,0)*0.1,N109)</f>
+        <v>167.99999999999997</v>
+      </c>
+      <c r="N109">
+        <v>165.8</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43837</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>165.14999999999998</v>
+      </c>
       <c r="D110">
-        <f t="shared" si="8"/>
-        <v>165.2</v>
+        <f t="shared" ref="D109:D119" si="11">D109-(A110-A109)*0.2</f>
+        <v>164.99999999999994</v>
+      </c>
+      <c r="E110">
+        <f>MAX(IF($C110-165&lt;MIN($E$104:$E109),$C110-165,MIN($E$104:$E109)),0)</f>
+        <v>0.14999999999997726</v>
+      </c>
+      <c r="F110">
+        <f>MAX(IF($C110-155&lt;MIN($F$104:$F109),$C110-155,MIN($F$104:$F109)),0)</f>
+        <v>10.149999999999977</v>
+      </c>
+      <c r="G110">
+        <f>MAX(IF($C110-145&lt;MIN($G$104:$G109),$C110-145,MIN($G$104:$G109)),0)</f>
+        <v>20.149999999999977</v>
+      </c>
+      <c r="H110">
+        <f>H109</f>
+        <v>162.6</v>
+      </c>
+      <c r="I110">
+        <f>MAX(I109-ROUNDUP(I109-N110,0)*0.1,N110)</f>
+        <v>167.69999999999996</v>
+      </c>
+      <c r="N110">
+        <v>165.8</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
@@ -16177,8 +16319,8 @@
         <v>43838</v>
       </c>
       <c r="D111">
-        <f t="shared" si="8"/>
-        <v>165</v>
+        <f t="shared" si="11"/>
+        <v>164.79999999999995</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
@@ -16186,8 +16328,8 @@
         <v>43839</v>
       </c>
       <c r="D112">
-        <f t="shared" si="8"/>
-        <v>164.8</v>
+        <f t="shared" si="11"/>
+        <v>164.59999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -16195,8 +16337,8 @@
         <v>43840</v>
       </c>
       <c r="D113">
-        <f t="shared" si="8"/>
-        <v>164.60000000000002</v>
+        <f t="shared" si="11"/>
+        <v>164.39999999999998</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -16204,8 +16346,8 @@
         <v>43841</v>
       </c>
       <c r="D114">
-        <f t="shared" si="8"/>
-        <v>164.40000000000003</v>
+        <f t="shared" si="11"/>
+        <v>164.2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -16213,8 +16355,8 @@
         <v>43842</v>
       </c>
       <c r="D115">
-        <f t="shared" si="8"/>
-        <v>164.20000000000005</v>
+        <f t="shared" si="11"/>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -16222,8 +16364,8 @@
         <v>43843</v>
       </c>
       <c r="D116">
-        <f t="shared" si="8"/>
-        <v>164.00000000000006</v>
+        <f t="shared" si="11"/>
+        <v>163.80000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -16231,8 +16373,8 @@
         <v>43844</v>
       </c>
       <c r="D117">
-        <f t="shared" si="8"/>
-        <v>163.80000000000007</v>
+        <f t="shared" si="11"/>
+        <v>163.60000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -16240,8 +16382,8 @@
         <v>43845</v>
       </c>
       <c r="D118">
-        <f t="shared" si="8"/>
-        <v>163.60000000000008</v>
+        <f t="shared" si="11"/>
+        <v>163.40000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -16249,8 +16391,8 @@
         <v>43846</v>
       </c>
       <c r="D119">
-        <f t="shared" si="8"/>
-        <v>163.40000000000009</v>
+        <f t="shared" si="11"/>
+        <v>163.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD17C1-92AB-4897-A59B-B8DC45FB42A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE4987-B6C8-4171-ADA5-5571E1F0389A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -1272,7 +1272,7 @@
                   <c:v>165.29999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>165.14999999999998</c:v>
+                  <c:v>165.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +3104,7 @@
                         <c:v>0.29999999999998295</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>0.14999999999997726</c:v>
+                        <c:v>0.19999999999998863</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3856,7 +3856,7 @@
                         <c:v>10.299999999999983</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>10.149999999999977</c:v>
+                        <c:v>10.199999999999989</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4608,7 +4608,7 @@
                         <c:v>20.299999999999983</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>20.149999999999977</c:v>
+                        <c:v>20.199999999999989</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6116,7 +6116,7 @@
                         <c:v>167.99999999999997</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>167.69999999999996</c:v>
+                        <c:v>167.79999999999998</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7577,6 +7577,9 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -8498,7 +8501,7 @@
                         <c:v>165.8</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>165.8</c:v>
+                        <c:v>166</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12628,7 +12631,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomRight" activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -16274,6 +16277,9 @@
         <f>MAX(I108-ROUNDUP(I108-N109,0)*0.1,N109)</f>
         <v>167.99999999999997</v>
       </c>
+      <c r="L109" t="s">
+        <v>12</v>
+      </c>
       <c r="N109">
         <v>165.8</v>
       </c>
@@ -16284,7 +16290,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>165.14999999999998</v>
+        <v>165.2</v>
       </c>
       <c r="D110">
         <f t="shared" ref="D109:D119" si="11">D109-(A110-A109)*0.2</f>
@@ -16292,15 +16298,15 @@
       </c>
       <c r="E110">
         <f>MAX(IF($C110-165&lt;MIN($E$104:$E109),$C110-165,MIN($E$104:$E109)),0)</f>
-        <v>0.14999999999997726</v>
+        <v>0.19999999999998863</v>
       </c>
       <c r="F110">
         <f>MAX(IF($C110-155&lt;MIN($F$104:$F109),$C110-155,MIN($F$104:$F109)),0)</f>
-        <v>10.149999999999977</v>
+        <v>10.199999999999989</v>
       </c>
       <c r="G110">
         <f>MAX(IF($C110-145&lt;MIN($G$104:$G109),$C110-145,MIN($G$104:$G109)),0)</f>
-        <v>20.149999999999977</v>
+        <v>20.199999999999989</v>
       </c>
       <c r="H110">
         <f>H109</f>
@@ -16308,10 +16314,10 @@
       </c>
       <c r="I110">
         <f>MAX(I109-ROUNDUP(I109-N110,0)*0.1,N110)</f>
-        <v>167.69999999999996</v>
+        <v>167.79999999999998</v>
       </c>
       <c r="N110">
-        <v>165.8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE4987-B6C8-4171-ADA5-5571E1F0389A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E4E8A-00DA-4861-A70B-95E319EBB2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1274,6 +1274,12 @@
                 <c:pt idx="108">
                   <c:v>165.2</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>165.45</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>165.09999999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3106,6 +3112,12 @@
                       <c:pt idx="108">
                         <c:v>0.19999999999998863</c:v>
                       </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0.19999999999998863</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>9.9999999999965894E-2</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3858,6 +3870,12 @@
                       <c:pt idx="108">
                         <c:v>10.199999999999989</c:v>
                       </c:pt>
+                      <c:pt idx="109">
+                        <c:v>10.199999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>10.099999999999966</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4609,6 +4627,12 @@
                       </c:pt>
                       <c:pt idx="108">
                         <c:v>20.199999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>20.199999999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>20.099999999999966</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5364,6 +5388,12 @@
                       <c:pt idx="108">
                         <c:v>162.6</c:v>
                       </c:pt>
+                      <c:pt idx="109">
+                        <c:v>163.4</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>163</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6117,6 +6147,12 @@
                       </c:pt>
                       <c:pt idx="108">
                         <c:v>167.79999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>167.49999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>167.19999999999996</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8502,6 +8538,12 @@
                       </c:pt>
                       <c:pt idx="108">
                         <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>165</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12631,7 +12673,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N112" sqref="N112"/>
+      <selection pane="bottomRight" activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14670,7 +14712,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C110" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C112" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -16134,7 +16176,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="I105">
-        <f>MAX(I104-ROUNDUP(I104-N105,0)*0.1,N105)</f>
+        <f t="shared" ref="I105:I111" si="8">MAX(I104-ROUNDUP(I104-N105,0)*0.1,N105)</f>
         <v>169.4</v>
       </c>
       <c r="N105">
@@ -16150,7 +16192,7 @@
         <v>166.1</v>
       </c>
       <c r="D106">
-        <f t="shared" ref="D106:D107" si="8">D105-(A106-A105)*0.3</f>
+        <f t="shared" ref="D106:D107" si="9">D105-(A106-A105)*0.3</f>
         <v>166.09999999999997</v>
       </c>
       <c r="E106">
@@ -16169,7 +16211,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="I106">
-        <f>MAX(I105-ROUNDUP(I105-N106,0)*0.1,N106)</f>
+        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="N106">
@@ -16185,7 +16227,7 @@
         <v>166.05</v>
       </c>
       <c r="D107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>165.79999999999995</v>
       </c>
       <c r="E107">
@@ -16204,7 +16246,7 @@
         <v>163.4</v>
       </c>
       <c r="I107">
-        <f>MAX(I106-ROUNDUP(I106-N107,0)*0.1,N107)</f>
+        <f t="shared" si="8"/>
         <v>168.7</v>
       </c>
       <c r="N107">
@@ -16220,7 +16262,7 @@
         <v>165.8</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108" si="9">D107-(A108-A107)*0.3</f>
+        <f t="shared" ref="D108" si="10">D107-(A108-A107)*0.3</f>
         <v>165.49999999999994</v>
       </c>
       <c r="E108">
@@ -16239,7 +16281,7 @@
         <v>163.30000000000001</v>
       </c>
       <c r="I108">
-        <f>MAX(I107-ROUNDUP(I107-N108,0)*0.1,N108)</f>
+        <f t="shared" si="8"/>
         <v>168.29999999999998</v>
       </c>
       <c r="N108">
@@ -16255,7 +16297,7 @@
         <v>165.29999999999998</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109" si="10">D108-(A109-A108)*0.3</f>
+        <f t="shared" ref="D109" si="11">D108-(A109-A108)*0.3</f>
         <v>165.19999999999993</v>
       </c>
       <c r="E109">
@@ -16274,7 +16316,7 @@
         <v>162.6</v>
       </c>
       <c r="I109">
-        <f>MAX(I108-ROUNDUP(I108-N109,0)*0.1,N109)</f>
+        <f t="shared" si="8"/>
         <v>167.99999999999997</v>
       </c>
       <c r="L109" t="s">
@@ -16293,7 +16335,7 @@
         <v>165.2</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D109:D119" si="11">D109-(A110-A109)*0.2</f>
+        <f t="shared" ref="D110:D119" si="12">D109-(A110-A109)*0.2</f>
         <v>164.99999999999994</v>
       </c>
       <c r="E110">
@@ -16313,7 +16355,7 @@
         <v>162.6</v>
       </c>
       <c r="I110">
-        <f>MAX(I109-ROUNDUP(I109-N110,0)*0.1,N110)</f>
+        <f t="shared" si="8"/>
         <v>167.79999999999998</v>
       </c>
       <c r="N110">
@@ -16324,18 +16366,70 @@
       <c r="A111" s="2">
         <v>43838</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>165.45</v>
+      </c>
       <c r="D111">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D111" si="13">D110-(A111-A110)*0.2</f>
         <v>164.79999999999995</v>
+      </c>
+      <c r="E111">
+        <f>MAX(IF($C111-165&lt;MIN($E$104:$E110),$C111-165,MIN($E$104:$E110)),0)</f>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="F111">
+        <f>MAX(IF($C111-155&lt;MIN($F$104:$F110),$C111-155,MIN($F$104:$F110)),0)</f>
+        <v>10.199999999999989</v>
+      </c>
+      <c r="G111">
+        <f>MAX(IF($C111-145&lt;MIN($G$104:$G110),$C111-145,MIN($G$104:$G110)),0)</f>
+        <v>20.199999999999989</v>
+      </c>
+      <c r="H111">
+        <v>163.4</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>167.49999999999997</v>
+      </c>
+      <c r="N111">
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43839</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>165.09999999999997</v>
+      </c>
       <c r="D112">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D112" si="14">D111-(A112-A111)*0.2</f>
         <v>164.59999999999997</v>
+      </c>
+      <c r="E112">
+        <f>MAX(IF($C112-165&lt;MIN($E$104:$E111),$C112-165,MIN($E$104:$E111)),0)</f>
+        <v>9.9999999999965894E-2</v>
+      </c>
+      <c r="F112">
+        <f>MAX(IF($C112-155&lt;MIN($F$104:$F111),$C112-155,MIN($F$104:$F111)),0)</f>
+        <v>10.099999999999966</v>
+      </c>
+      <c r="G112">
+        <f>MAX(IF($C112-145&lt;MIN($G$104:$G111),$C112-145,MIN($G$104:$G111)),0)</f>
+        <v>20.099999999999966</v>
+      </c>
+      <c r="H112">
+        <v>163</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ref="I112" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
+        <v>167.19999999999996</v>
+      </c>
+      <c r="N112">
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -16343,7 +16437,7 @@
         <v>43840</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>164.39999999999998</v>
       </c>
     </row>
@@ -16352,7 +16446,7 @@
         <v>43841</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>164.2</v>
       </c>
     </row>
@@ -16361,7 +16455,7 @@
         <v>43842</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>164</v>
       </c>
     </row>
@@ -16370,7 +16464,7 @@
         <v>43843</v>
       </c>
       <c r="D116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>163.80000000000001</v>
       </c>
     </row>
@@ -16379,7 +16473,7 @@
         <v>43844</v>
       </c>
       <c r="D117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>163.60000000000002</v>
       </c>
     </row>
@@ -16388,7 +16482,7 @@
         <v>43845</v>
       </c>
       <c r="D118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>163.40000000000003</v>
       </c>
     </row>
@@ -16397,7 +16491,7 @@
         <v>43846</v>
       </c>
       <c r="D119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>163.20000000000005</v>
       </c>
     </row>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E4E8A-00DA-4861-A70B-95E319EBB2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F99053B-3052-492F-85C3-FB2A73E0DEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
@@ -1280,6 +1280,9 @@
                 <c:pt idx="110">
                   <c:v>165.09999999999997</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>165.04999999999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1909,19 +1912,19 @@
                   <c:v>164.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
+                  <c:v>164.49999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>164.39999999999998</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
+                  <c:v>164.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>164.2</c:v>
                 </c:pt>
-                <c:pt idx="113">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>163.80000000000001</c:v>
-                </c:pt>
                 <c:pt idx="115">
-                  <c:v>163.60000000000002</c:v>
+                  <c:v>164.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,6 +3121,9 @@
                       <c:pt idx="110">
                         <c:v>9.9999999999965894E-2</c:v>
                       </c:pt>
+                      <c:pt idx="111">
+                        <c:v>4.9999999999954525E-2</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3876,6 +3882,9 @@
                       <c:pt idx="110">
                         <c:v>10.099999999999966</c:v>
                       </c:pt>
+                      <c:pt idx="111">
+                        <c:v>10.049999999999955</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4633,6 +4642,9 @@
                       </c:pt>
                       <c:pt idx="110">
                         <c:v>20.099999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>20.049999999999955</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5394,6 +5406,9 @@
                       <c:pt idx="110">
                         <c:v>163</c:v>
                       </c:pt>
+                      <c:pt idx="111">
+                        <c:v>163.19999999999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6153,6 +6168,9 @@
                       </c:pt>
                       <c:pt idx="110">
                         <c:v>167.19999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>166.89999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8543,6 +8561,9 @@
                         <c:v>165</c:v>
                       </c:pt>
                       <c:pt idx="110">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
                         <c:v>165</c:v>
                       </c:pt>
                     </c:numCache>
@@ -12670,10 +12691,10 @@
   <dimension ref="A1:AG119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N113" sqref="N113"/>
+      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14712,7 +14733,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C112" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C113" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -16425,74 +16446,100 @@
         <v>163</v>
       </c>
       <c r="I112">
-        <f t="shared" ref="I112" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
+        <f t="shared" ref="I112:I113" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
         <v>167.19999999999996</v>
       </c>
       <c r="N112">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>43840</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>165.04999999999995</v>
+      </c>
       <c r="D113">
-        <f t="shared" si="12"/>
-        <v>164.39999999999998</v>
+        <f>D112-(A113-A112)*0.1</f>
+        <v>164.49999999999997</v>
+      </c>
+      <c r="E113">
+        <f>MAX(IF($C113-165&lt;MIN($E$104:$E112),$C113-165,MIN($E$104:$E112)),0)</f>
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="F113">
+        <f>MAX(IF($C113-155&lt;MIN($F$104:$F112),$C113-155,MIN($F$104:$F112)),0)</f>
+        <v>10.049999999999955</v>
+      </c>
+      <c r="G113">
+        <f>MAX(IF($C113-145&lt;MIN($G$104:$G112),$C113-145,MIN($G$104:$G112)),0)</f>
+        <v>20.049999999999955</v>
+      </c>
+      <c r="H113">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="15"/>
+        <v>166.89999999999995</v>
+      </c>
+      <c r="N113">
+        <v>165</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>43841</v>
       </c>
       <c r="D114">
-        <f t="shared" si="12"/>
-        <v>164.2</v>
+        <f t="shared" ref="D114:D119" si="16">D113-(A114-A113)*0.1</f>
+        <v>164.39999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43842</v>
       </c>
       <c r="D115">
-        <f t="shared" si="12"/>
-        <v>164</v>
+        <f t="shared" si="16"/>
+        <v>164.29999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43843</v>
       </c>
       <c r="D116">
-        <f t="shared" si="12"/>
-        <v>163.80000000000001</v>
+        <f t="shared" si="16"/>
+        <v>164.2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>43844</v>
       </c>
       <c r="D117">
-        <f t="shared" si="12"/>
-        <v>163.60000000000002</v>
+        <f t="shared" si="16"/>
+        <v>164.1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>43845</v>
       </c>
       <c r="D118">
-        <f t="shared" si="12"/>
-        <v>163.40000000000003</v>
+        <f t="shared" si="16"/>
+        <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43846</v>
       </c>
       <c r="D119">
-        <f t="shared" si="12"/>
-        <v>163.20000000000005</v>
+        <f t="shared" si="16"/>
+        <v>163.9</v>
       </c>
     </row>
   </sheetData>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F99053B-3052-492F-85C3-FB2A73E0DEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9803F627-8958-42B2-842D-733E4B416462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
+    <workbookView xWindow="29010" yWindow="2775" windowWidth="19995" windowHeight="10710" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Loss" sheetId="1" r:id="rId1"/>
@@ -1283,6 +1283,15 @@
                 <c:pt idx="111">
                   <c:v>165.04999999999995</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>165.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>164.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>164.64999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3124,6 +3133,15 @@
                       <c:pt idx="111">
                         <c:v>4.9999999999954525E-2</c:v>
                       </c:pt>
+                      <c:pt idx="112">
+                        <c:v>4.9999999999954525E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3885,6 +3903,15 @@
                       <c:pt idx="111">
                         <c:v>10.049999999999955</c:v>
                       </c:pt>
+                      <c:pt idx="112">
+                        <c:v>10.049999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>9.8499999999999659</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>9.6499999999999773</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4645,6 +4672,15 @@
                       </c:pt>
                       <c:pt idx="111">
                         <c:v>20.049999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>20.049999999999955</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>19.849999999999966</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>19.649999999999977</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5409,6 +5445,15 @@
                       <c:pt idx="111">
                         <c:v>163.19999999999999</c:v>
                       </c:pt>
+                      <c:pt idx="112">
+                        <c:v>163.6</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>163.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>163</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -6171,6 +6216,15 @@
                       </c:pt>
                       <c:pt idx="111">
                         <c:v>166.89999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>166.69999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>166.49999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>166.29999999999998</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8564,6 +8618,15 @@
                         <c:v>165</c:v>
                       </c:pt>
                       <c:pt idx="111">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
                         <c:v>165</c:v>
                       </c:pt>
                     </c:numCache>
@@ -12691,10 +12754,10 @@
   <dimension ref="A1:AG119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
+      <selection pane="bottomRight" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14733,7 +14796,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C113" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C116" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -16446,7 +16509,7 @@
         <v>163</v>
       </c>
       <c r="I112">
-        <f t="shared" ref="I112:I113" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
+        <f t="shared" ref="I112:I116" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
         <v>167.19999999999996</v>
       </c>
       <c r="N112">
@@ -16492,27 +16555,105 @@
       <c r="A114" s="2">
         <v>43841</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>165.14999999999998</v>
+      </c>
       <c r="D114">
-        <f t="shared" ref="D114:D119" si="16">D113-(A114-A113)*0.1</f>
+        <f t="shared" ref="D114:D116" si="16">D113-(A114-A113)*0.1</f>
         <v>164.39999999999998</v>
+      </c>
+      <c r="E114">
+        <f>MAX(IF($C114-165&lt;MIN($E$104:$E113),$C114-165,MIN($E$104:$E113)),0)</f>
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="F114">
+        <f>MAX(IF($C114-155&lt;MIN($F$104:$F113),$C114-155,MIN($F$104:$F113)),0)</f>
+        <v>10.049999999999955</v>
+      </c>
+      <c r="G114">
+        <f>MAX(IF($C114-145&lt;MIN($G$104:$G113),$C114-145,MIN($G$104:$G113)),0)</f>
+        <v>20.049999999999955</v>
+      </c>
+      <c r="H114">
+        <v>163.6</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="15"/>
+        <v>166.69999999999996</v>
+      </c>
+      <c r="N114">
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43842</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>164.84999999999997</v>
+      </c>
       <c r="D115">
         <f t="shared" si="16"/>
         <v>164.29999999999998</v>
+      </c>
+      <c r="E115">
+        <f>MAX(IF($C115-165&lt;MIN($E$104:$E114),$C115-165,MIN($E$104:$E114)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f>MAX(IF($C115-155&lt;MIN($F$104:$F114),$C115-155,MIN($F$104:$F114)),0)</f>
+        <v>9.8499999999999659</v>
+      </c>
+      <c r="G115">
+        <f>MAX(IF($C115-145&lt;MIN($G$104:$G114),$C115-145,MIN($G$104:$G114)),0)</f>
+        <v>19.849999999999966</v>
+      </c>
+      <c r="H115">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="15"/>
+        <v>166.49999999999997</v>
+      </c>
+      <c r="N115">
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43843</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>164.64999999999998</v>
+      </c>
       <c r="D116">
         <f t="shared" si="16"/>
         <v>164.2</v>
+      </c>
+      <c r="E116">
+        <f>MAX(IF($C116-165&lt;MIN($E$104:$E115),$C116-165,MIN($E$104:$E115)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f>MAX(IF($C116-155&lt;MIN($F$104:$F115),$C116-155,MIN($F$104:$F115)),0)</f>
+        <v>9.6499999999999773</v>
+      </c>
+      <c r="G116">
+        <f>MAX(IF($C116-145&lt;MIN($G$104:$G115),$C116-145,MIN($G$104:$G115)),0)</f>
+        <v>19.649999999999977</v>
+      </c>
+      <c r="H116">
+        <v>163</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="15"/>
+        <v>166.29999999999998</v>
+      </c>
+      <c r="N116">
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -16520,7 +16661,7 @@
         <v>43844</v>
       </c>
       <c r="D117">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D114:D119" si="17">D116-(A117-A116)*0.1</f>
         <v>164.1</v>
       </c>
     </row>
@@ -16529,7 +16670,7 @@
         <v>43845</v>
       </c>
       <c r="D118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>164</v>
       </c>
     </row>
@@ -16538,7 +16679,7 @@
         <v>43846</v>
       </c>
       <c r="D119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>163.9</v>
       </c>
     </row>

--- a/StrengthProgress.xlsx
+++ b/StrengthProgress.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F3EE1-E94C-4B64-9A6B-0C93766E8E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66E4DE-C701-4C22-BDBB-5DDECC62DE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="360" windowWidth="19992" windowHeight="10716" xr2:uid="{494B4D2D-C1E0-428B-A256-C8B6AE5C0E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight Loss" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -186,8 +187,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Roger Lester Palabasan</author>
+  </authors>
+  <commentList>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{0FE16345-CBA8-471E-9B0A-1181D4C4C93F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roger Lester Palabasan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+my default</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -374,12 +409,54 @@
   <si>
     <t>Jan Jog</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Crimson</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +490,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +532,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -436,11 +551,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -448,8 +580,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4354,10 +4490,10 @@
   <dimension ref="A1:AG134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I117" sqref="I117"/>
+      <selection pane="bottomRight" activeCell="U112" sqref="U112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6396,7 +6532,7 @@
         <v>43745</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C118" si="3">AVERAGE($H66:$I66)</f>
+        <f t="shared" ref="C66:C120" si="3">AVERAGE($H66:$I66)</f>
         <v>162.4</v>
       </c>
       <c r="D66">
@@ -8109,7 +8245,7 @@
         <v>163</v>
       </c>
       <c r="I112">
-        <f t="shared" ref="I112:I118" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
+        <f t="shared" ref="I112:I120" si="15">MAX(I111-ROUNDUP(I111-N112,0)*0.1,N112)</f>
         <v>167.19999999999996</v>
       </c>
       <c r="N112">
@@ -8330,144 +8466,132 @@
       <c r="A119" s="2">
         <v>43846</v>
       </c>
-      <c r="D119">
-        <f t="shared" si="17"/>
-        <v>163.9</v>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>165.4</v>
+      </c>
+      <c r="E119">
+        <f>MAX(IF($C119-165&lt;MIN($E$104:$E118),$C119-165,MIN($E$104:$E118)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f>MAX(IF($C119-155&lt;MIN($F$104:$F118),$C119-155,MIN($F$104:$F118)),0)</f>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="G119">
+        <f>MAX(IF($C119-145&lt;MIN($G$104:$G118),$C119-145,MIN($G$104:$G118)),0)</f>
+        <v>19.699999999999989</v>
+      </c>
+      <c r="H119">
+        <v>164.4</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="15"/>
+        <v>166.4</v>
+      </c>
+      <c r="N119">
+        <v>166.4</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43847</v>
       </c>
-      <c r="D120">
-        <f t="shared" ref="D120:D127" si="18">D119-(A120-A119)*0.1</f>
-        <v>163.80000000000001</v>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>165.4</v>
+      </c>
+      <c r="E120">
+        <f>MAX(IF($C120-165&lt;MIN($E$104:$E119),$C120-165,MIN($E$104:$E119)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f>MAX(IF($C120-155&lt;MIN($F$104:$F119),$C120-155,MIN($F$104:$F119)),0)</f>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="G120">
+        <f>MAX(IF($C120-145&lt;MIN($G$104:$G119),$C120-145,MIN($G$104:$G119)),0)</f>
+        <v>19.699999999999989</v>
+      </c>
+      <c r="H120">
+        <v>164.4</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="15"/>
+        <v>166.4</v>
+      </c>
+      <c r="N120">
+        <v>166.4</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43848</v>
       </c>
-      <c r="D121">
-        <f t="shared" si="18"/>
-        <v>163.70000000000002</v>
-      </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>43849</v>
       </c>
-      <c r="D122">
-        <f t="shared" si="18"/>
-        <v>163.60000000000002</v>
-      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>43850</v>
       </c>
-      <c r="D123">
-        <f t="shared" si="18"/>
-        <v>163.50000000000003</v>
-      </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43851</v>
       </c>
-      <c r="D124">
-        <f t="shared" si="18"/>
-        <v>163.40000000000003</v>
-      </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43852</v>
       </c>
-      <c r="D125">
-        <f t="shared" si="18"/>
-        <v>163.30000000000004</v>
-      </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43853</v>
       </c>
-      <c r="D126">
-        <f t="shared" si="18"/>
-        <v>163.20000000000005</v>
-      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43854</v>
       </c>
-      <c r="D127">
-        <f t="shared" si="18"/>
-        <v>163.10000000000005</v>
-      </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43855</v>
       </c>
-      <c r="D128">
-        <f t="shared" ref="D128:D134" si="19">D127-(A128-A127)*0.1</f>
-        <v>163.00000000000006</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43856</v>
       </c>
-      <c r="D129">
-        <f t="shared" si="19"/>
-        <v>162.90000000000006</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43857</v>
       </c>
-      <c r="D130">
-        <f t="shared" si="19"/>
-        <v>162.80000000000007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43858</v>
       </c>
-      <c r="D131">
-        <f t="shared" si="19"/>
-        <v>162.70000000000007</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43859</v>
       </c>
-      <c r="D132">
-        <f t="shared" si="19"/>
-        <v>162.60000000000008</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43860</v>
       </c>
-      <c r="D133">
-        <f t="shared" si="19"/>
-        <v>162.50000000000009</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43861</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="19"/>
-        <v>162.40000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -8478,6 +8602,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABD90DB-1336-41CF-946F-463067F1AF57}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>_xlfn.SWITCH($D$9,E1,E6,G1,G6,M7,M9,I3,I8,L5)</f>
+        <v>Other</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E71D1A-70D0-4B7B-9CBE-FF7C7E9C4DE3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8489,7 +8695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED39C80-6C53-4422-B100-9B74FDDF1906}">
   <dimension ref="B2:E2"/>
   <sheetViews>
